--- a/data_source/byhand/landea_assets.xlsx
+++ b/data_source/byhand/landea_assets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\data_source\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD99E3D-4CC7-4F7C-9D45-7DA121689CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56897F66-63F4-4084-9D42-9144E5B49665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2792,13 +2792,12 @@
   <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="52.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2865,10 +2864,10 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>379658</v>
+        <v>37.965800000000002</v>
       </c>
       <c r="K2">
-        <v>237455</v>
+        <v>23.7455</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2885,7 +2884,7 @@
         <v>84000</v>
       </c>
       <c r="E3">
-        <v>885</v>
+        <v>88.5</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -2900,10 +2899,10 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>379938</v>
+        <v>37.9938</v>
       </c>
       <c r="K3">
-        <v>2373</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2935,10 +2934,10 @@
         <v>25</v>
       </c>
       <c r="J4">
-        <v>379962</v>
+        <v>37.996200000000002</v>
       </c>
       <c r="K4">
-        <v>237109</v>
+        <v>23.710899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2955,7 +2954,7 @@
         <v>126000</v>
       </c>
       <c r="E5">
-        <v>674</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2967,10 +2966,10 @@
         <v>30</v>
       </c>
       <c r="J5">
-        <v>380008</v>
+        <v>38.000799999999998</v>
       </c>
       <c r="K5">
-        <v>237193</v>
+        <v>23.7193</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2987,7 +2986,7 @@
         <v>132500</v>
       </c>
       <c r="E6">
-        <v>7554</v>
+        <v>75.540000000000006</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -2999,10 +2998,10 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>379963</v>
+        <v>37.996299999999998</v>
       </c>
       <c r="K6">
-        <v>237775</v>
+        <v>23.7775</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3031,10 +3030,10 @@
         <v>30</v>
       </c>
       <c r="J7">
-        <v>379973</v>
+        <v>37.997300000000003</v>
       </c>
       <c r="K7">
-        <v>237346</v>
+        <v>23.7346</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3051,7 +3050,7 @@
         <v>147000</v>
       </c>
       <c r="E8">
-        <v>628</v>
+        <v>62.8</v>
       </c>
       <c r="F8" t="s">
         <v>40</v>
@@ -3066,10 +3065,10 @@
         <v>42</v>
       </c>
       <c r="J8">
-        <v>380016</v>
+        <v>38.001600000000003</v>
       </c>
       <c r="K8">
-        <v>237172</v>
+        <v>23.717199999999998</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3086,7 +3085,7 @@
         <v>80000</v>
       </c>
       <c r="E9">
-        <v>7148</v>
+        <v>71.48</v>
       </c>
       <c r="F9" t="s">
         <v>45</v>
@@ -3098,10 +3097,10 @@
         <v>46</v>
       </c>
       <c r="J9">
-        <v>406067</v>
+        <v>40.606699999999996</v>
       </c>
       <c r="K9">
-        <v>229788</v>
+        <v>22.9788</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3118,7 +3117,7 @@
         <v>1811000</v>
       </c>
       <c r="E10">
-        <v>20221</v>
+        <v>202.21</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
@@ -3133,10 +3132,10 @@
         <v>50</v>
       </c>
       <c r="J10">
-        <v>379695</v>
+        <v>37.969499999999996</v>
       </c>
       <c r="K10">
-        <v>237266</v>
+        <v>23.726600000000001</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3153,7 +3152,7 @@
         <v>52000</v>
       </c>
       <c r="E11">
-        <v>7285</v>
+        <v>72.849999999999994</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -3168,10 +3167,10 @@
         <v>20</v>
       </c>
       <c r="J11">
-        <v>38002</v>
+        <v>38.002000000000002</v>
       </c>
       <c r="K11">
-        <v>237273</v>
+        <v>23.7273</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3188,7 +3187,7 @@
         <v>46000</v>
       </c>
       <c r="E12">
-        <v>491</v>
+        <v>49.1</v>
       </c>
       <c r="F12" t="s">
         <v>57</v>
@@ -3203,10 +3202,10 @@
         <v>59</v>
       </c>
       <c r="J12">
-        <v>380078</v>
+        <v>38.007800000000003</v>
       </c>
       <c r="K12">
-        <v>237368</v>
+        <v>23.736799999999999</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3223,7 +3222,7 @@
         <v>149000</v>
       </c>
       <c r="E13">
-        <v>845</v>
+        <v>84.5</v>
       </c>
       <c r="F13" t="s">
         <v>62</v>
@@ -3238,10 +3237,10 @@
         <v>63</v>
       </c>
       <c r="J13">
-        <v>380069</v>
+        <v>38.006900000000002</v>
       </c>
       <c r="K13">
-        <v>23732</v>
+        <v>23.731999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3273,10 +3272,10 @@
         <v>67</v>
       </c>
       <c r="J14">
-        <v>406207</v>
+        <v>40.620699999999999</v>
       </c>
       <c r="K14">
-        <v>229596</v>
+        <v>22.959599999999998</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3293,7 +3292,7 @@
         <v>80000</v>
       </c>
       <c r="E15">
-        <v>545</v>
+        <v>54.5</v>
       </c>
       <c r="F15" t="s">
         <v>69</v>
@@ -3308,10 +3307,10 @@
         <v>70</v>
       </c>
       <c r="J15">
-        <v>37992</v>
+        <v>37.991999999999997</v>
       </c>
       <c r="K15">
-        <v>237536</v>
+        <v>23.753599999999999</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3328,7 +3327,7 @@
         <v>93000</v>
       </c>
       <c r="E16">
-        <v>588</v>
+        <v>58.8</v>
       </c>
       <c r="F16" t="s">
         <v>73</v>
@@ -3340,10 +3339,10 @@
         <v>74</v>
       </c>
       <c r="J16">
-        <v>379701</v>
+        <v>37.970100000000002</v>
       </c>
       <c r="K16">
-        <v>237436</v>
+        <v>23.743600000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3375,10 +3374,10 @@
         <v>79</v>
       </c>
       <c r="J17">
-        <v>379618</v>
+        <v>37.961799999999997</v>
       </c>
       <c r="K17">
-        <v>237323</v>
+        <v>23.732299999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3395,7 +3394,7 @@
         <v>103000</v>
       </c>
       <c r="E18">
-        <v>6975</v>
+        <v>69.75</v>
       </c>
       <c r="F18" t="s">
         <v>82</v>
@@ -3407,10 +3406,10 @@
         <v>83</v>
       </c>
       <c r="J18">
-        <v>406413</v>
+        <v>40.641300000000001</v>
       </c>
       <c r="K18">
-        <v>229435</v>
+        <v>22.9435</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3442,10 +3441,10 @@
         <v>88</v>
       </c>
       <c r="J19">
-        <v>406154</v>
+        <v>40.615400000000001</v>
       </c>
       <c r="K19">
-        <v>229832</v>
+        <v>22.9832</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3477,10 +3476,10 @@
         <v>50</v>
       </c>
       <c r="J20">
-        <v>380071</v>
+        <v>38.007100000000001</v>
       </c>
       <c r="K20">
-        <v>237317</v>
+        <v>23.7317</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3497,7 +3496,7 @@
         <v>65000</v>
       </c>
       <c r="E21">
-        <v>8486</v>
+        <v>84.86</v>
       </c>
       <c r="F21" t="s">
         <v>94</v>
@@ -3509,10 +3508,10 @@
         <v>95</v>
       </c>
       <c r="J21">
-        <v>379887</v>
+        <v>37.988700000000001</v>
       </c>
       <c r="K21">
-        <v>237253</v>
+        <v>23.725300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3544,10 +3543,10 @@
         <v>99</v>
       </c>
       <c r="J22">
-        <v>406049</v>
+        <v>40.604900000000001</v>
       </c>
       <c r="K22">
-        <v>229588</v>
+        <v>22.9588</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3564,7 +3563,7 @@
         <v>106000</v>
       </c>
       <c r="E23">
-        <v>7515</v>
+        <v>75.150000000000006</v>
       </c>
       <c r="F23" t="s">
         <v>102</v>
@@ -3576,10 +3575,10 @@
         <v>103</v>
       </c>
       <c r="J23">
-        <v>406205</v>
+        <v>40.6205</v>
       </c>
       <c r="K23">
-        <v>229755</v>
+        <v>22.9755</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,10 +3610,10 @@
         <v>30</v>
       </c>
       <c r="J24">
-        <v>379937</v>
+        <v>37.993699999999997</v>
       </c>
       <c r="K24">
-        <v>237595</v>
+        <v>23.759499999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3646,10 +3645,10 @@
         <v>99</v>
       </c>
       <c r="J25">
-        <v>379614</v>
+        <v>37.961399999999998</v>
       </c>
       <c r="K25">
-        <v>237435</v>
+        <v>23.743500000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3681,10 +3680,10 @@
         <v>113</v>
       </c>
       <c r="J26">
-        <v>379864</v>
+        <v>37.986400000000003</v>
       </c>
       <c r="K26">
-        <v>237511</v>
+        <v>23.751100000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3701,7 +3700,7 @@
         <v>136000</v>
       </c>
       <c r="E27">
-        <v>1129</v>
+        <v>112.9</v>
       </c>
       <c r="F27" t="s">
         <v>116</v>
@@ -3713,10 +3712,10 @@
         <v>42</v>
       </c>
       <c r="J27">
-        <v>379516</v>
+        <v>37.951599999999999</v>
       </c>
       <c r="K27">
-        <v>237236</v>
+        <v>23.723600000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3733,7 +3732,7 @@
         <v>63000</v>
       </c>
       <c r="E28">
-        <v>4635</v>
+        <v>46.35</v>
       </c>
       <c r="F28" t="s">
         <v>118</v>
@@ -3745,10 +3744,10 @@
         <v>99</v>
       </c>
       <c r="J28">
-        <v>379964</v>
+        <v>37.996400000000001</v>
       </c>
       <c r="K28">
-        <v>237245</v>
+        <v>23.724499999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -3765,7 +3764,7 @@
         <v>103000</v>
       </c>
       <c r="E29">
-        <v>4434</v>
+        <v>44.34</v>
       </c>
       <c r="F29" t="s">
         <v>121</v>
@@ -3777,10 +3776,10 @@
         <v>16</v>
       </c>
       <c r="J29">
-        <v>379664</v>
+        <v>37.9664</v>
       </c>
       <c r="K29">
-        <v>237524</v>
+        <v>23.752400000000002</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3797,7 +3796,7 @@
         <v>77000</v>
       </c>
       <c r="E30">
-        <v>659</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="F30" t="s">
         <v>124</v>
@@ -3809,10 +3808,10 @@
         <v>125</v>
       </c>
       <c r="J30">
-        <v>379894</v>
+        <v>37.989100000000001</v>
       </c>
       <c r="K30">
-        <v>23727</v>
+        <v>23.7255</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -3844,10 +3843,10 @@
         <v>50</v>
       </c>
       <c r="J31">
-        <v>380059</v>
+        <v>38.005899999999997</v>
       </c>
       <c r="K31">
-        <v>237471</v>
+        <v>23.7471</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -3879,10 +3878,10 @@
         <v>103</v>
       </c>
       <c r="J32">
-        <v>380025</v>
+        <v>38.002499999999998</v>
       </c>
       <c r="K32">
-        <v>237267</v>
+        <v>23.726700000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -3899,7 +3898,7 @@
         <v>83500</v>
       </c>
       <c r="E33">
-        <v>606</v>
+        <v>60.6</v>
       </c>
       <c r="F33" t="s">
         <v>133</v>
@@ -3911,10 +3910,10 @@
         <v>83</v>
       </c>
       <c r="J33">
-        <v>380234</v>
+        <v>38.023400000000002</v>
       </c>
       <c r="K33">
-        <v>237317</v>
+        <v>23.7317</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -3931,7 +3930,7 @@
         <v>147000</v>
       </c>
       <c r="E34">
-        <v>8426</v>
+        <v>84.26</v>
       </c>
       <c r="F34" t="s">
         <v>136</v>
@@ -3943,10 +3942,10 @@
         <v>99</v>
       </c>
       <c r="J34">
-        <v>379884</v>
+        <v>37.988399999999999</v>
       </c>
       <c r="K34">
-        <v>237132</v>
+        <v>23.713200000000001</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -3978,10 +3977,10 @@
         <v>42</v>
       </c>
       <c r="J35">
-        <v>380219</v>
+        <v>38.021900000000002</v>
       </c>
       <c r="K35">
-        <v>237349</v>
+        <v>23.7349</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3998,7 +3997,7 @@
         <v>316000</v>
       </c>
       <c r="E36">
-        <v>43903</v>
+        <v>439.03</v>
       </c>
       <c r="F36" t="s">
         <v>142</v>
@@ -4013,10 +4012,10 @@
         <v>70</v>
       </c>
       <c r="J36">
-        <v>38006</v>
+        <v>38.006</v>
       </c>
       <c r="K36">
-        <v>237228</v>
+        <v>23.722799999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -4048,10 +4047,10 @@
         <v>20</v>
       </c>
       <c r="J37">
-        <v>380027</v>
+        <v>38.002699999999997</v>
       </c>
       <c r="K37">
-        <v>237373</v>
+        <v>23.737300000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -4068,7 +4067,7 @@
         <v>55000</v>
       </c>
       <c r="E38">
-        <v>4725</v>
+        <v>47.25</v>
       </c>
       <c r="F38" t="s">
         <v>148</v>
@@ -4080,10 +4079,10 @@
         <v>149</v>
       </c>
       <c r="J38">
-        <v>379952</v>
+        <v>37.995199999999997</v>
       </c>
       <c r="K38">
-        <v>237274</v>
+        <v>23.727399999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -4115,10 +4114,10 @@
         <v>74</v>
       </c>
       <c r="J39">
-        <v>380038</v>
+        <v>38.003799999999998</v>
       </c>
       <c r="K39">
-        <v>237395</v>
+        <v>23.7395</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -4147,10 +4146,10 @@
         <v>103</v>
       </c>
       <c r="J40">
-        <v>379939</v>
+        <v>37.993899999999996</v>
       </c>
       <c r="K40">
-        <v>23749</v>
+        <v>23.748999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -4182,10 +4181,10 @@
         <v>149</v>
       </c>
       <c r="J41">
-        <v>380129</v>
+        <v>38.012900000000002</v>
       </c>
       <c r="K41">
-        <v>23732</v>
+        <v>23.731999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -4202,7 +4201,7 @@
         <v>70000</v>
       </c>
       <c r="E42">
-        <v>8365</v>
+        <v>83.65</v>
       </c>
       <c r="F42" t="s">
         <v>159</v>
@@ -4214,10 +4213,10 @@
         <v>160</v>
       </c>
       <c r="J42">
-        <v>379993</v>
+        <v>37.999299999999998</v>
       </c>
       <c r="K42">
-        <v>237307</v>
+        <v>23.730699999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -4246,10 +4245,10 @@
         <v>42</v>
       </c>
       <c r="J43">
-        <v>379889</v>
+        <v>37.988900000000001</v>
       </c>
       <c r="K43">
-        <v>237431</v>
+        <v>23.743099999999998</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -4266,7 +4265,7 @@
         <v>67000</v>
       </c>
       <c r="E44">
-        <v>465</v>
+        <v>46.5</v>
       </c>
       <c r="F44" t="s">
         <v>165</v>
@@ -4278,10 +4277,10 @@
         <v>160</v>
       </c>
       <c r="J44">
-        <v>379816</v>
+        <v>37.9816</v>
       </c>
       <c r="K44">
-        <v>237147</v>
+        <v>23.714700000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -4313,10 +4312,10 @@
         <v>103</v>
       </c>
       <c r="J45">
-        <v>379705</v>
+        <v>37.970500000000001</v>
       </c>
       <c r="K45">
-        <v>237081</v>
+        <v>23.708100000000002</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -4333,7 +4332,7 @@
         <v>231000</v>
       </c>
       <c r="E46">
-        <v>11048</v>
+        <v>110.48</v>
       </c>
       <c r="F46" t="s">
         <v>170</v>
@@ -4348,10 +4347,10 @@
         <v>59</v>
       </c>
       <c r="J46">
-        <v>380321</v>
+        <v>38.0321</v>
       </c>
       <c r="K46">
-        <v>237401</v>
+        <v>23.740100000000002</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -4368,7 +4367,7 @@
         <v>136000</v>
       </c>
       <c r="E47">
-        <v>705</v>
+        <v>70.5</v>
       </c>
       <c r="F47" t="s">
         <v>173</v>
@@ -4380,10 +4379,10 @@
         <v>174</v>
       </c>
       <c r="J47">
-        <v>37994</v>
+        <v>37.994</v>
       </c>
       <c r="K47">
-        <v>23717</v>
+        <v>23.716999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -4400,7 +4399,7 @@
         <v>76000</v>
       </c>
       <c r="E48">
-        <v>632</v>
+        <v>63.2</v>
       </c>
       <c r="F48" t="s">
         <v>177</v>
@@ -4412,10 +4411,10 @@
         <v>16</v>
       </c>
       <c r="J48">
-        <v>380113</v>
+        <v>38.011299999999999</v>
       </c>
       <c r="K48">
-        <v>237283</v>
+        <v>23.728300000000001</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
@@ -4432,7 +4431,7 @@
         <v>110000</v>
       </c>
       <c r="E49">
-        <v>795</v>
+        <v>79.5</v>
       </c>
       <c r="F49" t="s">
         <v>180</v>
@@ -4447,10 +4446,10 @@
         <v>59</v>
       </c>
       <c r="J49">
-        <v>406008</v>
+        <v>40.6008</v>
       </c>
       <c r="K49">
-        <v>229548</v>
+        <v>22.954799999999999</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -4467,7 +4466,7 @@
         <v>86000</v>
       </c>
       <c r="E50">
-        <v>645</v>
+        <v>64.5</v>
       </c>
       <c r="F50" t="s">
         <v>183</v>
@@ -4479,10 +4478,10 @@
         <v>160</v>
       </c>
       <c r="J50">
-        <v>380031</v>
+        <v>38.003100000000003</v>
       </c>
       <c r="K50">
-        <v>237139</v>
+        <v>23.713899999999999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -4499,7 +4498,7 @@
         <v>58000</v>
       </c>
       <c r="E51">
-        <v>6472</v>
+        <v>64.72</v>
       </c>
       <c r="F51" t="s">
         <v>185</v>
@@ -4511,10 +4510,10 @@
         <v>83</v>
       </c>
       <c r="J51">
-        <v>379994</v>
+        <v>37.999400000000001</v>
       </c>
       <c r="K51">
-        <v>237299</v>
+        <v>23.729900000000001</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -4546,10 +4545,10 @@
         <v>70</v>
       </c>
       <c r="J52">
-        <v>380012</v>
+        <v>37.999699999999997</v>
       </c>
       <c r="K52">
-        <v>23747</v>
+        <v>23.7456</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -4566,7 +4565,7 @@
         <v>128000</v>
       </c>
       <c r="E53">
-        <v>599</v>
+        <v>59.9</v>
       </c>
       <c r="F53" t="s">
         <v>191</v>
@@ -4578,10 +4577,10 @@
         <v>88</v>
       </c>
       <c r="J53">
-        <v>379752</v>
+        <v>37.975200000000001</v>
       </c>
       <c r="K53">
-        <v>237143</v>
+        <v>23.714300000000001</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -4598,7 +4597,7 @@
         <v>140000</v>
       </c>
       <c r="E54">
-        <v>7745</v>
+        <v>77.45</v>
       </c>
       <c r="F54" t="s">
         <v>193</v>
@@ -4613,10 +4612,10 @@
         <v>194</v>
       </c>
       <c r="J54">
-        <v>379626</v>
+        <v>37.962600000000002</v>
       </c>
       <c r="K54">
-        <v>237209</v>
+        <v>23.7209</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -4633,7 +4632,7 @@
         <v>96000</v>
       </c>
       <c r="E55">
-        <v>6354</v>
+        <v>63.54</v>
       </c>
       <c r="F55" t="s">
         <v>197</v>
@@ -4645,10 +4644,10 @@
         <v>198</v>
       </c>
       <c r="J55">
-        <v>379979</v>
+        <v>37.997900000000001</v>
       </c>
       <c r="K55">
-        <v>23739</v>
+        <v>23.739000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4680,10 +4679,10 @@
         <v>202</v>
       </c>
       <c r="J56">
-        <v>379803</v>
+        <v>37.9803</v>
       </c>
       <c r="K56">
-        <v>237491</v>
+        <v>23.749099999999999</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -4700,7 +4699,7 @@
         <v>261000</v>
       </c>
       <c r="E57">
-        <v>12075</v>
+        <v>120.75</v>
       </c>
       <c r="F57" t="s">
         <v>205</v>
@@ -4715,10 +4714,10 @@
         <v>63</v>
       </c>
       <c r="J57">
-        <v>379977</v>
+        <v>37.997700000000002</v>
       </c>
       <c r="K57">
-        <v>237443</v>
+        <v>23.744299999999999</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -4735,7 +4734,7 @@
         <v>63000</v>
       </c>
       <c r="E58">
-        <v>5848</v>
+        <v>58.48</v>
       </c>
       <c r="F58" t="s">
         <v>207</v>
@@ -4750,10 +4749,10 @@
         <v>194</v>
       </c>
       <c r="J58">
-        <v>380143</v>
+        <v>38.014299999999999</v>
       </c>
       <c r="K58">
-        <v>237311</v>
+        <v>23.731100000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -4770,7 +4769,7 @@
         <v>204000</v>
       </c>
       <c r="E59">
-        <v>9147</v>
+        <v>91.47</v>
       </c>
       <c r="F59" t="s">
         <v>210</v>
@@ -4785,10 +4784,10 @@
         <v>50</v>
       </c>
       <c r="J59">
-        <v>379567</v>
+        <v>37.956699999999998</v>
       </c>
       <c r="K59">
-        <v>237424</v>
+        <v>23.7424</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4805,7 +4804,7 @@
         <v>77000</v>
       </c>
       <c r="E60">
-        <v>412</v>
+        <v>41.2</v>
       </c>
       <c r="F60" t="s">
         <v>213</v>
@@ -4817,10 +4816,10 @@
         <v>20</v>
       </c>
       <c r="J60">
-        <v>37991</v>
+        <v>37.991</v>
       </c>
       <c r="K60">
-        <v>237667</v>
+        <v>23.7667</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -4837,7 +4836,7 @@
         <v>328000</v>
       </c>
       <c r="E61">
-        <v>12875</v>
+        <v>128.75</v>
       </c>
       <c r="F61" t="s">
         <v>216</v>
@@ -4852,10 +4851,10 @@
         <v>217</v>
       </c>
       <c r="J61">
-        <v>379866</v>
+        <v>37.986600000000003</v>
       </c>
       <c r="K61">
-        <v>237436</v>
+        <v>23.743600000000001</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -4872,7 +4871,7 @@
         <v>247000</v>
       </c>
       <c r="E62">
-        <v>16607</v>
+        <v>166.07</v>
       </c>
       <c r="F62" t="s">
         <v>220</v>
@@ -4884,10 +4883,10 @@
         <v>30</v>
       </c>
       <c r="J62">
-        <v>406058</v>
+        <v>40.605800000000002</v>
       </c>
       <c r="K62">
-        <v>229817</v>
+        <v>22.9817</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -4919,10 +4918,10 @@
         <v>50</v>
       </c>
       <c r="J63">
-        <v>38004</v>
+        <v>38.003999999999998</v>
       </c>
       <c r="K63">
-        <v>237213</v>
+        <v>23.721299999999999</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -4939,7 +4938,7 @@
         <v>124000</v>
       </c>
       <c r="E64">
-        <v>5204</v>
+        <v>52.04</v>
       </c>
       <c r="F64" t="s">
         <v>225</v>
@@ -4951,10 +4950,10 @@
         <v>46</v>
       </c>
       <c r="J64">
-        <v>37978</v>
+        <v>37.978000000000002</v>
       </c>
       <c r="K64">
-        <v>237107</v>
+        <v>23.710699999999999</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -4971,7 +4970,7 @@
         <v>132000</v>
       </c>
       <c r="E65">
-        <v>1337</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="F65" t="s">
         <v>228</v>
@@ -4983,10 +4982,10 @@
         <v>20</v>
       </c>
       <c r="J65">
-        <v>380053</v>
+        <v>38.005299999999998</v>
       </c>
       <c r="K65">
-        <v>237346</v>
+        <v>23.7346</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -5018,10 +5017,10 @@
         <v>50</v>
       </c>
       <c r="J66">
-        <v>406093</v>
+        <v>40.609299999999998</v>
       </c>
       <c r="K66">
-        <v>229525</v>
+        <v>22.952500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -5038,7 +5037,7 @@
         <v>125000</v>
       </c>
       <c r="E67">
-        <v>871</v>
+        <v>87.1</v>
       </c>
       <c r="F67" t="s">
         <v>234</v>
@@ -5053,10 +5052,10 @@
         <v>95</v>
       </c>
       <c r="J67">
-        <v>406044</v>
+        <v>40.604399999999998</v>
       </c>
       <c r="K67">
-        <v>229631</v>
+        <v>22.963100000000001</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -5073,7 +5072,7 @@
         <v>72351</v>
       </c>
       <c r="E68">
-        <v>2862</v>
+        <v>28.62</v>
       </c>
       <c r="F68" t="s">
         <v>237</v>
@@ -5088,10 +5087,10 @@
         <v>42</v>
       </c>
       <c r="J68">
-        <v>379992</v>
+        <v>37.999200000000002</v>
       </c>
       <c r="K68">
-        <v>237377</v>
+        <v>23.7377</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -5120,10 +5119,10 @@
         <v>30</v>
       </c>
       <c r="J69">
-        <v>379997</v>
+        <v>37.999699999999997</v>
       </c>
       <c r="K69">
-        <v>237191</v>
+        <v>23.719100000000001</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -5140,7 +5139,7 @@
         <v>47000</v>
       </c>
       <c r="E70">
-        <v>632</v>
+        <v>63.2</v>
       </c>
       <c r="F70" t="s">
         <v>241</v>
@@ -5155,10 +5154,10 @@
         <v>103</v>
       </c>
       <c r="J70">
-        <v>406052</v>
+        <v>40.605200000000004</v>
       </c>
       <c r="K70">
-        <v>229533</v>
+        <v>22.953299999999999</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -5175,7 +5174,7 @@
         <v>57000</v>
       </c>
       <c r="E71">
-        <v>6643</v>
+        <v>66.430000000000007</v>
       </c>
       <c r="F71" t="s">
         <v>244</v>
@@ -5190,10 +5189,10 @@
         <v>50</v>
       </c>
       <c r="J71">
-        <v>379904</v>
+        <v>37.990400000000001</v>
       </c>
       <c r="K71">
-        <v>237273</v>
+        <v>23.7273</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -5222,10 +5221,10 @@
         <v>16</v>
       </c>
       <c r="J72">
-        <v>38001</v>
+        <v>38.000999999999998</v>
       </c>
       <c r="K72">
-        <v>237457</v>
+        <v>23.745699999999999</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -5242,7 +5241,7 @@
         <v>368000</v>
       </c>
       <c r="E73">
-        <v>1219</v>
+        <v>121.9</v>
       </c>
       <c r="F73" t="s">
         <v>249</v>
@@ -5254,10 +5253,10 @@
         <v>74</v>
       </c>
       <c r="J73">
-        <v>379701</v>
+        <v>37.970100000000002</v>
       </c>
       <c r="K73">
-        <v>237436</v>
+        <v>23.743600000000001</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -5274,7 +5273,7 @@
         <v>129000</v>
       </c>
       <c r="E74">
-        <v>9368</v>
+        <v>93.68</v>
       </c>
       <c r="F74" t="s">
         <v>252</v>
@@ -5289,10 +5288,10 @@
         <v>59</v>
       </c>
       <c r="J74">
-        <v>380078</v>
+        <v>38.007800000000003</v>
       </c>
       <c r="K74">
-        <v>237337</v>
+        <v>23.733699999999999</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -5309,7 +5308,7 @@
         <v>223000</v>
       </c>
       <c r="E75">
-        <v>1007</v>
+        <v>100.7</v>
       </c>
       <c r="F75" t="s">
         <v>255</v>
@@ -5321,10 +5320,10 @@
         <v>70</v>
       </c>
       <c r="J75">
-        <v>379838</v>
+        <v>37.983800000000002</v>
       </c>
       <c r="K75">
-        <v>237106</v>
+        <v>23.710599999999999</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -5353,10 +5352,10 @@
         <v>258</v>
       </c>
       <c r="J76">
-        <v>380063</v>
+        <v>38.006300000000003</v>
       </c>
       <c r="K76">
-        <v>2374</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -5373,7 +5372,7 @@
         <v>186000</v>
       </c>
       <c r="E77">
-        <v>671</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="F77" t="s">
         <v>260</v>
@@ -5385,10 +5384,10 @@
         <v>74</v>
       </c>
       <c r="J77">
-        <v>379701</v>
+        <v>37.970100000000002</v>
       </c>
       <c r="K77">
-        <v>237436</v>
+        <v>23.743600000000001</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -5405,7 +5404,7 @@
         <v>179000</v>
       </c>
       <c r="E78">
-        <v>8907</v>
+        <v>89.07</v>
       </c>
       <c r="F78" t="s">
         <v>263</v>
@@ -5420,10 +5419,10 @@
         <v>50</v>
       </c>
       <c r="J78">
-        <v>406067</v>
+        <v>40.606699999999996</v>
       </c>
       <c r="K78">
-        <v>229741</v>
+        <v>22.9741</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -5455,10 +5454,10 @@
         <v>103</v>
       </c>
       <c r="J79">
-        <v>380059</v>
+        <v>38.005899999999997</v>
       </c>
       <c r="K79">
-        <v>237471</v>
+        <v>23.7471</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -5487,10 +5486,10 @@
         <v>83</v>
       </c>
       <c r="J80">
-        <v>380051</v>
+        <v>38.005099999999999</v>
       </c>
       <c r="K80">
-        <v>237384</v>
+        <v>23.738399999999999</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -5507,7 +5506,7 @@
         <v>152000</v>
       </c>
       <c r="E81">
-        <v>591</v>
+        <v>59.1</v>
       </c>
       <c r="F81" t="s">
         <v>270</v>
@@ -5522,10 +5521,10 @@
         <v>42</v>
       </c>
       <c r="J81">
-        <v>379832</v>
+        <v>37.983199999999997</v>
       </c>
       <c r="K81">
-        <v>237565</v>
+        <v>23.756499999999999</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -5542,7 +5541,7 @@
         <v>79000</v>
       </c>
       <c r="E82">
-        <v>735</v>
+        <v>73.5</v>
       </c>
       <c r="F82" t="s">
         <v>273</v>
@@ -5557,10 +5556,10 @@
         <v>95</v>
       </c>
       <c r="J82">
-        <v>406361</v>
+        <v>40.636099999999999</v>
       </c>
       <c r="K82">
-        <v>229516</v>
+        <v>22.951599999999999</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -5577,7 +5576,7 @@
         <v>95000</v>
       </c>
       <c r="E83">
-        <v>813</v>
+        <v>81.3</v>
       </c>
       <c r="F83" t="s">
         <v>276</v>
@@ -5592,10 +5591,10 @@
         <v>277</v>
       </c>
       <c r="J83">
-        <v>379981</v>
+        <v>37.999299999999998</v>
       </c>
       <c r="K83">
-        <v>237332</v>
+        <v>23.735600000000002</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -5627,10 +5626,10 @@
         <v>280</v>
       </c>
       <c r="J84">
-        <v>379917</v>
+        <v>37.991700000000002</v>
       </c>
       <c r="K84">
-        <v>237626</v>
+        <v>23.762599999999999</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -5659,10 +5658,10 @@
         <v>83</v>
       </c>
       <c r="J85">
-        <v>406178</v>
+        <v>40.617800000000003</v>
       </c>
       <c r="K85">
-        <v>229738</v>
+        <v>22.973800000000001</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5679,7 +5678,7 @@
         <v>183000</v>
       </c>
       <c r="E86">
-        <v>885</v>
+        <v>88.5</v>
       </c>
       <c r="F86" t="s">
         <v>286</v>
@@ -5691,10 +5690,10 @@
         <v>103</v>
       </c>
       <c r="J86">
-        <v>379538</v>
+        <v>37.953800000000001</v>
       </c>
       <c r="K86">
-        <v>237256</v>
+        <v>23.7256</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -5723,10 +5722,10 @@
         <v>59</v>
       </c>
       <c r="J87">
-        <v>406069</v>
+        <v>40.606900000000003</v>
       </c>
       <c r="K87">
-        <v>229644</v>
+        <v>22.964400000000001</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -5743,7 +5742,7 @@
         <v>151000</v>
       </c>
       <c r="E88">
-        <v>9501</v>
+        <v>95.01</v>
       </c>
       <c r="F88" t="s">
         <v>291</v>
@@ -5758,10 +5757,10 @@
         <v>16</v>
       </c>
       <c r="J88">
-        <v>379908</v>
+        <v>37.9908</v>
       </c>
       <c r="K88">
-        <v>237665</v>
+        <v>23.766500000000001</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -5778,7 +5777,7 @@
         <v>269000</v>
       </c>
       <c r="E89">
-        <v>1347</v>
+        <v>134.69999999999999</v>
       </c>
       <c r="F89" t="s">
         <v>294</v>
@@ -5793,10 +5792,10 @@
         <v>194</v>
       </c>
       <c r="J89">
-        <v>405912</v>
+        <v>40.591200000000001</v>
       </c>
       <c r="K89">
-        <v>229591</v>
+        <v>22.959099999999999</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5813,7 +5812,7 @@
         <v>86480</v>
       </c>
       <c r="E90">
-        <v>912</v>
+        <v>91.2</v>
       </c>
       <c r="F90" t="s">
         <v>297</v>
@@ -5828,10 +5827,10 @@
         <v>42</v>
       </c>
       <c r="J90">
-        <v>379956</v>
+        <v>37.995600000000003</v>
       </c>
       <c r="K90">
-        <v>237102</v>
+        <v>23.7102</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -5863,10 +5862,10 @@
         <v>301</v>
       </c>
       <c r="J91">
-        <v>406238</v>
+        <v>40.623800000000003</v>
       </c>
       <c r="K91">
-        <v>229652</v>
+        <v>22.965199999999999</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -5883,7 +5882,7 @@
         <v>180000</v>
       </c>
       <c r="E92">
-        <v>10665</v>
+        <v>106.65</v>
       </c>
       <c r="F92" t="s">
         <v>304</v>
@@ -5898,10 +5897,10 @@
         <v>25</v>
       </c>
       <c r="J92">
-        <v>380188</v>
+        <v>38.018799999999999</v>
       </c>
       <c r="K92">
-        <v>237431</v>
+        <v>23.743099999999998</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -5918,7 +5917,7 @@
         <v>87000</v>
       </c>
       <c r="E93">
-        <v>593</v>
+        <v>59.3</v>
       </c>
       <c r="F93" t="s">
         <v>306</v>
@@ -5933,10 +5932,10 @@
         <v>113</v>
       </c>
       <c r="J93">
-        <v>379963</v>
+        <v>37.996299999999998</v>
       </c>
       <c r="K93">
-        <v>237368</v>
+        <v>23.736799999999999</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -5953,7 +5952,7 @@
         <v>51000</v>
       </c>
       <c r="E94">
-        <v>4906</v>
+        <v>49.06</v>
       </c>
       <c r="F94" t="s">
         <v>308</v>
@@ -5965,10 +5964,10 @@
         <v>309</v>
       </c>
       <c r="J94">
-        <v>380158</v>
+        <v>38.015799999999999</v>
       </c>
       <c r="K94">
-        <v>237297</v>
+        <v>23.729700000000001</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -5985,7 +5984,7 @@
         <v>45000</v>
       </c>
       <c r="E95">
-        <v>475</v>
+        <v>47.5</v>
       </c>
       <c r="F95" t="s">
         <v>312</v>
@@ -5997,10 +5996,10 @@
         <v>46</v>
       </c>
       <c r="J95">
-        <v>380142</v>
+        <v>38.014200000000002</v>
       </c>
       <c r="K95">
-        <v>237371</v>
+        <v>23.737100000000002</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -6029,10 +6028,10 @@
         <v>50</v>
       </c>
       <c r="J96">
-        <v>406132</v>
+        <v>40.613199999999999</v>
       </c>
       <c r="K96">
-        <v>229785</v>
+        <v>22.9785</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -6049,7 +6048,7 @@
         <v>112000</v>
       </c>
       <c r="E97">
-        <v>1059</v>
+        <v>105.9</v>
       </c>
       <c r="F97" t="s">
         <v>317</v>
@@ -6061,10 +6060,10 @@
         <v>67</v>
       </c>
       <c r="J97">
-        <v>379926</v>
+        <v>37.992600000000003</v>
       </c>
       <c r="K97">
-        <v>237286</v>
+        <v>23.7286</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -6081,7 +6080,7 @@
         <v>57000</v>
       </c>
       <c r="E98">
-        <v>475</v>
+        <v>47.5</v>
       </c>
       <c r="F98" t="s">
         <v>319</v>
@@ -6096,10 +6095,10 @@
         <v>50</v>
       </c>
       <c r="J98">
-        <v>379997</v>
+        <v>37.999699999999997</v>
       </c>
       <c r="K98">
-        <v>237127</v>
+        <v>23.712700000000002</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -6128,10 +6127,10 @@
         <v>16</v>
       </c>
       <c r="J99">
-        <v>379898</v>
+        <v>37.989800000000002</v>
       </c>
       <c r="K99">
-        <v>237128</v>
+        <v>23.712800000000001</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -6148,7 +6147,7 @@
         <v>57000</v>
       </c>
       <c r="E100">
-        <v>542</v>
+        <v>54.2</v>
       </c>
       <c r="F100" t="s">
         <v>325</v>
@@ -6163,10 +6162,10 @@
         <v>59</v>
       </c>
       <c r="J100">
-        <v>406376</v>
+        <v>40.637599999999999</v>
       </c>
       <c r="K100">
-        <v>229541</v>
+        <v>22.9541</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -6183,7 +6182,7 @@
         <v>89000</v>
       </c>
       <c r="E101">
-        <v>635</v>
+        <v>63.5</v>
       </c>
       <c r="F101" t="s">
         <v>327</v>
@@ -6198,10 +6197,10 @@
         <v>83</v>
       </c>
       <c r="J101">
-        <v>406014</v>
+        <v>40.601399999999998</v>
       </c>
       <c r="K101">
-        <v>229674</v>
+        <v>22.967400000000001</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
@@ -6218,7 +6217,7 @@
         <v>168000</v>
       </c>
       <c r="E102">
-        <v>1075</v>
+        <v>107.5</v>
       </c>
       <c r="F102" t="s">
         <v>330</v>
@@ -6233,10 +6232,10 @@
         <v>149</v>
       </c>
       <c r="J102">
-        <v>380166</v>
+        <v>38.016599999999997</v>
       </c>
       <c r="K102">
-        <v>237267</v>
+        <v>23.726700000000001</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
@@ -6253,7 +6252,7 @@
         <v>203000</v>
       </c>
       <c r="E103">
-        <v>9784</v>
+        <v>97.84</v>
       </c>
       <c r="F103" t="s">
         <v>333</v>
@@ -6268,10 +6267,10 @@
         <v>160</v>
       </c>
       <c r="J103">
-        <v>379707</v>
+        <v>37.970700000000001</v>
       </c>
       <c r="K103">
-        <v>23744</v>
+        <v>23.744</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
@@ -6303,10 +6302,10 @@
         <v>258</v>
       </c>
       <c r="J104">
-        <v>405991</v>
+        <v>40.5991</v>
       </c>
       <c r="K104">
-        <v>229628</v>
+        <v>22.962800000000001</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
@@ -6335,10 +6334,10 @@
         <v>149</v>
       </c>
       <c r="J105">
-        <v>379615</v>
+        <v>37.961500000000001</v>
       </c>
       <c r="K105">
-        <v>23733</v>
+        <v>23.733000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
@@ -6370,10 +6369,10 @@
         <v>25</v>
       </c>
       <c r="J106">
-        <v>379962</v>
+        <v>37.996200000000002</v>
       </c>
       <c r="K106">
-        <v>237109</v>
+        <v>23.710899999999999</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
@@ -6390,7 +6389,7 @@
         <v>1300000</v>
       </c>
       <c r="E107">
-        <v>71381</v>
+        <v>713.81</v>
       </c>
       <c r="F107" t="s">
         <v>341</v>
@@ -6405,10 +6404,10 @@
         <v>301</v>
       </c>
       <c r="J107">
-        <v>379946</v>
+        <v>37.994599999999998</v>
       </c>
       <c r="K107">
-        <v>237316</v>
+        <v>23.7316</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
@@ -6440,10 +6439,10 @@
         <v>309</v>
       </c>
       <c r="J108">
-        <v>380006</v>
+        <v>38.003399999999999</v>
       </c>
       <c r="K108">
-        <v>237318</v>
+        <v>23.728899999999999</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
@@ -6460,7 +6459,7 @@
         <v>92000</v>
       </c>
       <c r="E109">
-        <v>607</v>
+        <v>60.7</v>
       </c>
       <c r="F109" t="s">
         <v>345</v>
@@ -6475,10 +6474,10 @@
         <v>301</v>
       </c>
       <c r="J109">
-        <v>406215</v>
+        <v>40.621499999999997</v>
       </c>
       <c r="K109">
-        <v>22966</v>
+        <v>22.966000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
@@ -6495,7 +6494,7 @@
         <v>93840</v>
       </c>
       <c r="E110">
-        <v>7456</v>
+        <v>74.56</v>
       </c>
       <c r="F110" t="s">
         <v>347</v>
@@ -6510,10 +6509,10 @@
         <v>301</v>
       </c>
       <c r="J110">
-        <v>380047</v>
+        <v>38.0047</v>
       </c>
       <c r="K110">
-        <v>237454</v>
+        <v>23.7454</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
@@ -6530,7 +6529,7 @@
         <v>77500</v>
       </c>
       <c r="E111">
-        <v>663</v>
+        <v>66.3</v>
       </c>
       <c r="F111" t="s">
         <v>349</v>
@@ -6542,10 +6541,10 @@
         <v>42</v>
       </c>
       <c r="J111">
-        <v>380079</v>
+        <v>38.007899999999999</v>
       </c>
       <c r="K111">
-        <v>237338</v>
+        <v>23.733799999999999</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
@@ -6577,10 +6576,10 @@
         <v>103</v>
       </c>
       <c r="J112">
-        <v>379552</v>
+        <v>37.955199999999998</v>
       </c>
       <c r="K112">
-        <v>237219</v>
+        <v>23.721900000000002</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
@@ -6609,10 +6608,10 @@
         <v>83</v>
       </c>
       <c r="J113">
-        <v>406053</v>
+        <v>40.6053</v>
       </c>
       <c r="K113">
-        <v>229672</v>
+        <v>22.967199999999998</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
@@ -6644,10 +6643,10 @@
         <v>30</v>
       </c>
       <c r="J114">
-        <v>406095</v>
+        <v>40.609499999999997</v>
       </c>
       <c r="K114">
-        <v>22976</v>
+        <v>22.975999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
@@ -6664,7 +6663,7 @@
         <v>2200000</v>
       </c>
       <c r="E115">
-        <v>45944</v>
+        <v>459.44</v>
       </c>
       <c r="F115" t="s">
         <v>358</v>
@@ -6679,10 +6678,10 @@
         <v>301</v>
       </c>
       <c r="J115">
-        <v>379802</v>
+        <v>37.980200000000004</v>
       </c>
       <c r="K115">
-        <v>237234</v>
+        <v>23.723400000000002</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
@@ -6714,10 +6713,10 @@
         <v>83</v>
       </c>
       <c r="J116">
-        <v>406309</v>
+        <v>40.630899999999997</v>
       </c>
       <c r="K116">
-        <v>229519</v>
+        <v>22.951899999999998</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -6734,7 +6733,7 @@
         <v>69000</v>
       </c>
       <c r="E117">
-        <v>8602</v>
+        <v>86.02</v>
       </c>
       <c r="F117" t="s">
         <v>364</v>
@@ -6749,10 +6748,10 @@
         <v>67</v>
       </c>
       <c r="J117">
-        <v>379997</v>
+        <v>37.999699999999997</v>
       </c>
       <c r="K117">
-        <v>237278</v>
+        <v>23.727799999999998</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
@@ -6784,10 +6783,10 @@
         <v>103</v>
       </c>
       <c r="J118">
-        <v>379659</v>
+        <v>37.965899999999998</v>
       </c>
       <c r="K118">
-        <v>237477</v>
+        <v>23.747699999999998</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
@@ -6804,7 +6803,7 @@
         <v>142000</v>
       </c>
       <c r="E119">
-        <v>6114</v>
+        <v>61.14</v>
       </c>
       <c r="F119" t="s">
         <v>367</v>
@@ -6816,10 +6815,10 @@
         <v>70</v>
       </c>
       <c r="J119">
-        <v>379838</v>
+        <v>37.983800000000002</v>
       </c>
       <c r="K119">
-        <v>237106</v>
+        <v>23.710599999999999</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
@@ -6848,10 +6847,10 @@
         <v>95</v>
       </c>
       <c r="J120">
-        <v>37957</v>
+        <v>37.957000000000001</v>
       </c>
       <c r="K120">
-        <v>23741</v>
+        <v>23.741</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
@@ -6880,10 +6879,10 @@
         <v>373</v>
       </c>
       <c r="J121">
-        <v>379968</v>
+        <v>37.9968</v>
       </c>
       <c r="K121">
-        <v>237341</v>
+        <v>23.734100000000002</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
@@ -6900,7 +6899,7 @@
         <v>212000</v>
       </c>
       <c r="E122">
-        <v>12265</v>
+        <v>122.65</v>
       </c>
       <c r="F122" t="s">
         <v>376</v>
@@ -6915,10 +6914,10 @@
         <v>194</v>
       </c>
       <c r="J122">
-        <v>379803</v>
+        <v>37.9803</v>
       </c>
       <c r="K122">
-        <v>237094</v>
+        <v>23.709399999999999</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
@@ -6950,10 +6949,10 @@
         <v>20</v>
       </c>
       <c r="J123">
-        <v>379909</v>
+        <v>37.990900000000003</v>
       </c>
       <c r="K123">
-        <v>237353</v>
+        <v>23.735299999999999</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
@@ -6970,7 +6969,7 @@
         <v>270000</v>
       </c>
       <c r="E124">
-        <v>1025</v>
+        <v>102.5</v>
       </c>
       <c r="F124" t="s">
         <v>382</v>
@@ -6982,10 +6981,10 @@
         <v>194</v>
       </c>
       <c r="J124">
-        <v>379726</v>
+        <v>37.9726</v>
       </c>
       <c r="K124">
-        <v>237444</v>
+        <v>23.744399999999999</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
@@ -7017,10 +7016,10 @@
         <v>258</v>
       </c>
       <c r="J125">
-        <v>380059</v>
+        <v>38.005899999999997</v>
       </c>
       <c r="K125">
-        <v>237363</v>
+        <v>23.7363</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
@@ -7052,10 +7051,10 @@
         <v>74</v>
       </c>
       <c r="J126">
-        <v>379743</v>
+        <v>37.974299999999999</v>
       </c>
       <c r="K126">
-        <v>237425</v>
+        <v>23.7425</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
@@ -7087,10 +7086,10 @@
         <v>103</v>
       </c>
       <c r="J127">
-        <v>406389</v>
+        <v>40.6389</v>
       </c>
       <c r="K127">
-        <v>229418</v>
+        <v>22.941800000000001</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
@@ -7119,10 +7118,10 @@
         <v>202</v>
       </c>
       <c r="J128">
-        <v>406409</v>
+        <v>40.640900000000002</v>
       </c>
       <c r="K128">
-        <v>229298</v>
+        <v>22.9298</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
@@ -7139,7 +7138,7 @@
         <v>175000</v>
       </c>
       <c r="E129">
-        <v>1212</v>
+        <v>121.2</v>
       </c>
       <c r="F129" t="s">
         <v>393</v>
@@ -7151,10 +7150,10 @@
         <v>83</v>
       </c>
       <c r="J129">
-        <v>380234</v>
+        <v>38.023400000000002</v>
       </c>
       <c r="K129">
-        <v>237317</v>
+        <v>23.7317</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
@@ -7183,10 +7182,10 @@
         <v>395</v>
       </c>
       <c r="J130">
-        <v>38004</v>
+        <v>38.003999999999998</v>
       </c>
       <c r="K130">
-        <v>237213</v>
+        <v>23.721299999999999</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
@@ -7203,7 +7202,7 @@
         <v>87000</v>
       </c>
       <c r="E131">
-        <v>724</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="F131" t="s">
         <v>398</v>
@@ -7218,10 +7217,10 @@
         <v>83</v>
       </c>
       <c r="J131">
-        <v>379942</v>
+        <v>37.994199999999999</v>
       </c>
       <c r="K131">
-        <v>237184</v>
+        <v>23.718399999999999</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
@@ -7250,10 +7249,10 @@
         <v>16</v>
       </c>
       <c r="J132">
-        <v>379606</v>
+        <v>37.960599999999999</v>
       </c>
       <c r="K132">
-        <v>237414</v>
+        <v>23.741399999999999</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
@@ -7285,10 +7284,10 @@
         <v>149</v>
       </c>
       <c r="J133">
-        <v>379904</v>
+        <v>37.990400000000001</v>
       </c>
       <c r="K133">
-        <v>237095</v>
+        <v>23.709499999999998</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
@@ -7320,10 +7319,10 @@
         <v>160</v>
       </c>
       <c r="J134">
-        <v>379769</v>
+        <v>37.976900000000001</v>
       </c>
       <c r="K134">
-        <v>237461</v>
+        <v>23.746099999999998</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
@@ -7340,7 +7339,7 @@
         <v>151000</v>
       </c>
       <c r="E135">
-        <v>805</v>
+        <v>80.5</v>
       </c>
       <c r="F135" t="s">
         <v>407</v>
@@ -7355,10 +7354,10 @@
         <v>309</v>
       </c>
       <c r="J135">
-        <v>37972</v>
+        <v>37.972000000000001</v>
       </c>
       <c r="K135">
-        <v>23756</v>
+        <v>23.756</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
@@ -7387,10 +7386,10 @@
         <v>59</v>
       </c>
       <c r="J136">
-        <v>37957</v>
+        <v>37.957000000000001</v>
       </c>
       <c r="K136">
-        <v>23741</v>
+        <v>23.741</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
@@ -7407,7 +7406,7 @@
         <v>56000</v>
       </c>
       <c r="E137">
-        <v>429</v>
+        <v>42.9</v>
       </c>
       <c r="F137" t="s">
         <v>410</v>
@@ -7419,10 +7418,10 @@
         <v>149</v>
       </c>
       <c r="J137">
-        <v>379942</v>
+        <v>37.994199999999999</v>
       </c>
       <c r="K137">
-        <v>237294</v>
+        <v>23.729399999999998</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
@@ -7439,7 +7438,7 @@
         <v>83400</v>
       </c>
       <c r="E138">
-        <v>9462</v>
+        <v>94.62</v>
       </c>
       <c r="F138" t="s">
         <v>412</v>
@@ -7454,10 +7453,10 @@
         <v>194</v>
       </c>
       <c r="J138">
-        <v>380042</v>
+        <v>38.004199999999997</v>
       </c>
       <c r="K138">
-        <v>237326</v>
+        <v>23.732600000000001</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
@@ -7474,7 +7473,7 @@
         <v>59150</v>
       </c>
       <c r="E139">
-        <v>687</v>
+        <v>68.7</v>
       </c>
       <c r="F139" t="s">
         <v>414</v>
@@ -7492,7 +7491,7 @@
         <v>38</v>
       </c>
       <c r="K139">
-        <v>237085</v>
+        <v>23.708500000000001</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
@@ -7509,7 +7508,7 @@
         <v>81000</v>
       </c>
       <c r="E140">
-        <v>5242</v>
+        <v>52.42</v>
       </c>
       <c r="F140" t="s">
         <v>416</v>
@@ -7520,12 +7519,6 @@
       <c r="I140" t="s">
         <v>99</v>
       </c>
-      <c r="J140">
-        <v>379622</v>
-      </c>
-      <c r="K140">
-        <v>237454</v>
-      </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
@@ -7553,10 +7546,10 @@
         <v>67</v>
       </c>
       <c r="J141">
-        <v>406104</v>
+        <v>40.610399999999998</v>
       </c>
       <c r="K141">
-        <v>229758</v>
+        <v>22.9758</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
@@ -7588,10 +7581,10 @@
         <v>194</v>
       </c>
       <c r="J142">
-        <v>379786</v>
+        <v>37.9786</v>
       </c>
       <c r="K142">
-        <v>237084</v>
+        <v>23.708400000000001</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
@@ -7608,7 +7601,7 @@
         <v>93000</v>
       </c>
       <c r="E143">
-        <v>6438</v>
+        <v>64.38</v>
       </c>
       <c r="F143" t="s">
         <v>423</v>
@@ -7623,10 +7616,10 @@
         <v>79</v>
       </c>
       <c r="J143">
-        <v>379529</v>
+        <v>37.9529</v>
       </c>
       <c r="K143">
-        <v>237243</v>
+        <v>23.724299999999999</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
@@ -7655,10 +7648,10 @@
         <v>160</v>
       </c>
       <c r="J144">
-        <v>38011</v>
+        <v>38.011000000000003</v>
       </c>
       <c r="K144">
-        <v>237302</v>
+        <v>23.7302</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
@@ -7690,10 +7683,10 @@
         <v>301</v>
       </c>
       <c r="J145">
-        <v>379974</v>
+        <v>37.997399999999999</v>
       </c>
       <c r="K145">
-        <v>237238</v>
+        <v>23.723800000000001</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
@@ -7710,7 +7703,7 @@
         <v>206000</v>
       </c>
       <c r="E146">
-        <v>8568</v>
+        <v>85.68</v>
       </c>
       <c r="F146" t="s">
         <v>430</v>
@@ -7725,10 +7718,10 @@
         <v>67</v>
       </c>
       <c r="J146">
-        <v>380275</v>
+        <v>38.027500000000003</v>
       </c>
       <c r="K146">
-        <v>237373</v>
+        <v>23.737300000000001</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
@@ -7760,10 +7753,10 @@
         <v>50</v>
       </c>
       <c r="J147">
-        <v>406116</v>
+        <v>40.611600000000003</v>
       </c>
       <c r="K147">
-        <v>229733</v>
+        <v>22.973299999999998</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
@@ -7780,7 +7773,7 @@
         <v>174000</v>
       </c>
       <c r="E148">
-        <v>4576</v>
+        <v>45.76</v>
       </c>
       <c r="F148" t="s">
         <v>435</v>
@@ -7795,10 +7788,10 @@
         <v>436</v>
       </c>
       <c r="J148">
-        <v>406158</v>
+        <v>40.6158</v>
       </c>
       <c r="K148">
-        <v>229756</v>
+        <v>22.9756</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
@@ -7830,10 +7823,10 @@
         <v>194</v>
       </c>
       <c r="J149">
-        <v>379957</v>
+        <v>37.995699999999999</v>
       </c>
       <c r="K149">
-        <v>237348</v>
+        <v>23.7348</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
@@ -7850,7 +7843,7 @@
         <v>121000</v>
       </c>
       <c r="E150">
-        <v>6527</v>
+        <v>65.27</v>
       </c>
       <c r="F150" t="s">
         <v>441</v>
@@ -7865,10 +7858,10 @@
         <v>99</v>
       </c>
       <c r="J150">
-        <v>406433</v>
+        <v>40.643300000000004</v>
       </c>
       <c r="K150">
-        <v>229451</v>
+        <v>22.9451</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
@@ -7885,7 +7878,7 @@
         <v>327000</v>
       </c>
       <c r="E151">
-        <v>10646</v>
+        <v>106.46</v>
       </c>
       <c r="F151" t="s">
         <v>443</v>
@@ -7897,10 +7890,10 @@
         <v>20</v>
       </c>
       <c r="J151">
-        <v>379791</v>
+        <v>37.979100000000003</v>
       </c>
       <c r="K151">
-        <v>237356</v>
+        <v>23.735600000000002</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
@@ -7932,10 +7925,10 @@
         <v>202</v>
       </c>
       <c r="J152">
-        <v>38003</v>
+        <v>38.003</v>
       </c>
       <c r="K152">
-        <v>237445</v>
+        <v>23.744499999999999</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
@@ -7952,7 +7945,7 @@
         <v>63000</v>
       </c>
       <c r="E153">
-        <v>522</v>
+        <v>52.2</v>
       </c>
       <c r="F153" t="s">
         <v>449</v>
@@ -7964,10 +7957,10 @@
         <v>16</v>
       </c>
       <c r="J153">
-        <v>406432</v>
+        <v>40.6432</v>
       </c>
       <c r="K153">
-        <v>229496</v>
+        <v>22.9496</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
@@ -7984,7 +7977,7 @@
         <v>84000</v>
       </c>
       <c r="E154">
-        <v>658</v>
+        <v>65.8</v>
       </c>
       <c r="F154" t="s">
         <v>451</v>
@@ -7999,10 +7992,10 @@
         <v>25</v>
       </c>
       <c r="J154">
-        <v>380126</v>
+        <v>38.012599999999999</v>
       </c>
       <c r="K154">
-        <v>237304</v>
+        <v>23.730399999999999</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
@@ -8019,7 +8012,7 @@
         <v>150000</v>
       </c>
       <c r="E155">
-        <v>9645</v>
+        <v>96.45</v>
       </c>
       <c r="F155" t="s">
         <v>454</v>
@@ -8034,10 +8027,10 @@
         <v>74</v>
       </c>
       <c r="J155">
-        <v>380085</v>
+        <v>38.008499999999998</v>
       </c>
       <c r="K155">
-        <v>237363</v>
+        <v>23.7363</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
@@ -8054,7 +8047,7 @@
         <v>189000</v>
       </c>
       <c r="E156">
-        <v>6953</v>
+        <v>69.53</v>
       </c>
       <c r="F156" t="s">
         <v>456</v>
@@ -8066,10 +8059,10 @@
         <v>16</v>
       </c>
       <c r="J156">
-        <v>379592</v>
+        <v>37.959200000000003</v>
       </c>
       <c r="K156">
-        <v>237443</v>
+        <v>23.744299999999999</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
@@ -8086,7 +8079,7 @@
         <v>160000</v>
       </c>
       <c r="E157">
-        <v>674</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F157" t="s">
         <v>457</v>
@@ -8098,10 +8091,10 @@
         <v>309</v>
       </c>
       <c r="J157">
-        <v>380008</v>
+        <v>38.000799999999998</v>
       </c>
       <c r="K157">
-        <v>237193</v>
+        <v>23.7193</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
@@ -8130,10 +8123,10 @@
         <v>149</v>
       </c>
       <c r="J158">
-        <v>380064</v>
+        <v>38.006399999999999</v>
       </c>
       <c r="K158">
-        <v>237383</v>
+        <v>23.738299999999999</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
@@ -8150,7 +8143,7 @@
         <v>170000</v>
       </c>
       <c r="E159">
-        <v>8746</v>
+        <v>87.46</v>
       </c>
       <c r="F159" t="s">
         <v>461</v>
@@ -8165,10 +8158,10 @@
         <v>103</v>
       </c>
       <c r="J159">
-        <v>406051</v>
+        <v>40.6051</v>
       </c>
       <c r="K159">
-        <v>229664</v>
+        <v>22.9664</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
@@ -8185,7 +8178,7 @@
         <v>66000</v>
       </c>
       <c r="E160">
-        <v>377</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="F160" t="s">
         <v>464</v>
@@ -8197,10 +8190,10 @@
         <v>46</v>
       </c>
       <c r="J160">
-        <v>37984</v>
+        <v>37.984000000000002</v>
       </c>
       <c r="K160">
-        <v>237378</v>
+        <v>23.7378</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
@@ -8229,10 +8222,10 @@
         <v>103</v>
       </c>
       <c r="J161">
-        <v>406094</v>
+        <v>40.608499999999999</v>
       </c>
       <c r="K161">
-        <v>229642</v>
+        <v>22.962599999999998</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
@@ -8264,10 +8257,10 @@
         <v>74</v>
       </c>
       <c r="J162">
-        <v>380038</v>
+        <v>38.003799999999998</v>
       </c>
       <c r="K162">
-        <v>237395</v>
+        <v>23.7395</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
@@ -8284,7 +8277,7 @@
         <v>85000</v>
       </c>
       <c r="E163">
-        <v>8203</v>
+        <v>82.03</v>
       </c>
       <c r="F163" t="s">
         <v>470</v>
@@ -8296,10 +8289,10 @@
         <v>471</v>
       </c>
       <c r="J163">
-        <v>406437</v>
+        <v>40.643700000000003</v>
       </c>
       <c r="K163">
-        <v>229375</v>
+        <v>22.9375</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
@@ -8331,10 +8324,10 @@
         <v>202</v>
       </c>
       <c r="J164">
-        <v>379886</v>
+        <v>37.988599999999998</v>
       </c>
       <c r="K164">
-        <v>23722</v>
+        <v>23.722000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
@@ -8351,7 +8344,7 @@
         <v>208340</v>
       </c>
       <c r="E165">
-        <v>947</v>
+        <v>94.7</v>
       </c>
       <c r="F165" t="s">
         <v>475</v>
@@ -8366,10 +8359,10 @@
         <v>25</v>
       </c>
       <c r="J165">
-        <v>406092</v>
+        <v>40.609099999999998</v>
       </c>
       <c r="K165">
-        <v>229579</v>
+        <v>22.957899999999999</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
@@ -8401,10 +8394,10 @@
         <v>46</v>
       </c>
       <c r="J166">
-        <v>406469</v>
+        <v>40.646900000000002</v>
       </c>
       <c r="K166">
-        <v>229355</v>
+        <v>22.935500000000001</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
@@ -8421,7 +8414,7 @@
         <v>40000</v>
       </c>
       <c r="E167">
-        <v>4194</v>
+        <v>41.94</v>
       </c>
       <c r="F167" t="s">
         <v>480</v>
@@ -8433,10 +8426,10 @@
         <v>83</v>
       </c>
       <c r="J167">
-        <v>379989</v>
+        <v>37.998899999999999</v>
       </c>
       <c r="K167">
-        <v>237194</v>
+        <v>23.7194</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
@@ -8453,7 +8446,7 @@
         <v>59320</v>
       </c>
       <c r="E168">
-        <v>2752</v>
+        <v>27.52</v>
       </c>
       <c r="F168" t="s">
         <v>483</v>
@@ -8465,10 +8458,10 @@
         <v>59</v>
       </c>
       <c r="J168">
-        <v>406328</v>
+        <v>40.632800000000003</v>
       </c>
       <c r="K168">
-        <v>229629</v>
+        <v>22.962900000000001</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
@@ -8497,10 +8490,10 @@
         <v>280</v>
       </c>
       <c r="J169">
-        <v>40605</v>
+        <v>40.604999999999997</v>
       </c>
       <c r="K169">
-        <v>229557</v>
+        <v>22.9557</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
@@ -8532,10 +8525,10 @@
         <v>59</v>
       </c>
       <c r="J170">
-        <v>379874</v>
+        <v>37.987400000000001</v>
       </c>
       <c r="K170">
-        <v>237509</v>
+        <v>23.750900000000001</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
@@ -8552,7 +8545,7 @@
         <v>113000</v>
       </c>
       <c r="E171">
-        <v>473</v>
+        <v>47.3</v>
       </c>
       <c r="F171" t="s">
         <v>489</v>
@@ -8564,10 +8557,10 @@
         <v>99</v>
       </c>
       <c r="J171">
-        <v>379848</v>
+        <v>37.9848</v>
       </c>
       <c r="K171">
-        <v>237367</v>
+        <v>23.736699999999999</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
@@ -8596,10 +8589,10 @@
         <v>103</v>
       </c>
       <c r="J172">
-        <v>379989</v>
+        <v>37.998899999999999</v>
       </c>
       <c r="K172">
-        <v>237269</v>
+        <v>23.726900000000001</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
@@ -8628,10 +8621,10 @@
         <v>103</v>
       </c>
       <c r="J173">
-        <v>379538</v>
+        <v>37.953800000000001</v>
       </c>
       <c r="K173">
-        <v>237256</v>
+        <v>23.7256</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
@@ -8648,7 +8641,7 @@
         <v>179000</v>
       </c>
       <c r="E174">
-        <v>1233</v>
+        <v>123.3</v>
       </c>
       <c r="F174" t="s">
         <v>494</v>
@@ -8660,10 +8653,10 @@
         <v>95</v>
       </c>
       <c r="J174">
-        <v>379952</v>
+        <v>37.995199999999997</v>
       </c>
       <c r="K174">
-        <v>237324</v>
+        <v>23.732399999999998</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
@@ -8680,7 +8673,7 @@
         <v>50000</v>
       </c>
       <c r="E175">
-        <v>359</v>
+        <v>35.9</v>
       </c>
       <c r="F175" t="s">
         <v>497</v>
@@ -8695,10 +8688,10 @@
         <v>280</v>
       </c>
       <c r="J175">
-        <v>406303</v>
+        <v>40.630299999999998</v>
       </c>
       <c r="K175">
-        <v>229439</v>
+        <v>22.943899999999999</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
@@ -8715,7 +8708,7 @@
         <v>60000</v>
       </c>
       <c r="E176">
-        <v>512</v>
+        <v>51.2</v>
       </c>
       <c r="F176" t="s">
         <v>499</v>
@@ -8727,10 +8720,10 @@
         <v>280</v>
       </c>
       <c r="J176">
-        <v>380027</v>
+        <v>38.002699999999997</v>
       </c>
       <c r="K176">
-        <v>23739</v>
+        <v>23.739000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
@@ -8762,10 +8755,10 @@
         <v>63</v>
       </c>
       <c r="J177">
-        <v>379956</v>
+        <v>37.997799999999998</v>
       </c>
       <c r="K177">
-        <v>237784</v>
+        <v>23.774699999999999</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
@@ -8797,10 +8790,10 @@
         <v>25</v>
       </c>
       <c r="J178">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K178">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
@@ -8829,10 +8822,10 @@
         <v>99</v>
       </c>
       <c r="J179">
-        <v>406141</v>
+        <v>40.614100000000001</v>
       </c>
       <c r="K179">
-        <v>229569</v>
+        <v>22.956900000000001</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
@@ -8861,10 +8854,10 @@
         <v>70</v>
       </c>
       <c r="J180">
-        <v>379974</v>
+        <v>37.997399999999999</v>
       </c>
       <c r="K180">
-        <v>237246</v>
+        <v>23.724599999999999</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
@@ -8881,7 +8874,7 @@
         <v>1000</v>
       </c>
       <c r="E181">
-        <v>1105</v>
+        <v>11.05</v>
       </c>
       <c r="F181" t="s">
         <v>512</v>
@@ -8896,10 +8889,10 @@
         <v>25</v>
       </c>
       <c r="J181">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K181">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
@@ -8916,7 +8909,7 @@
         <v>65400</v>
       </c>
       <c r="E182">
-        <v>8908</v>
+        <v>89.08</v>
       </c>
       <c r="F182" t="s">
         <v>514</v>
@@ -8931,10 +8924,10 @@
         <v>25</v>
       </c>
       <c r="J182">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K182">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
@@ -8960,10 +8953,10 @@
         <v>103</v>
       </c>
       <c r="J183">
-        <v>37968</v>
+        <v>37.968000000000004</v>
       </c>
       <c r="K183">
-        <v>237598</v>
+        <v>23.759799999999998</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
@@ -8980,7 +8973,7 @@
         <v>250000</v>
       </c>
       <c r="E184">
-        <v>1456</v>
+        <v>145.6</v>
       </c>
       <c r="F184" t="s">
         <v>520</v>
@@ -8995,10 +8988,10 @@
         <v>301</v>
       </c>
       <c r="J184">
-        <v>406403</v>
+        <v>40.640300000000003</v>
       </c>
       <c r="K184">
-        <v>229566</v>
+        <v>22.956600000000002</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
@@ -9015,7 +9008,7 @@
         <v>207000</v>
       </c>
       <c r="E185">
-        <v>13275</v>
+        <v>132.75</v>
       </c>
       <c r="F185" t="s">
         <v>523</v>
@@ -9030,10 +9023,10 @@
         <v>70</v>
       </c>
       <c r="J185">
-        <v>406388</v>
+        <v>40.638800000000003</v>
       </c>
       <c r="K185">
-        <v>229392</v>
+        <v>22.9392</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
@@ -9065,10 +9058,10 @@
         <v>527</v>
       </c>
       <c r="J186">
-        <v>406046</v>
+        <v>40.604599999999998</v>
       </c>
       <c r="K186">
-        <v>229572</v>
+        <v>22.9572</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
@@ -9097,10 +9090,10 @@
         <v>70</v>
       </c>
       <c r="J187">
-        <v>380293</v>
+        <v>38.029299999999999</v>
       </c>
       <c r="K187">
-        <v>237438</v>
+        <v>23.7438</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
@@ -9114,7 +9107,7 @@
         <v>531</v>
       </c>
       <c r="D188">
-        <v>17781.599999999999</v>
+        <v>177816</v>
       </c>
       <c r="E188">
         <v>70</v>
@@ -9132,10 +9125,10 @@
         <v>301</v>
       </c>
       <c r="J188">
-        <v>406426</v>
+        <v>40.642600000000002</v>
       </c>
       <c r="K188">
-        <v>229423</v>
+        <v>22.942299999999999</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
@@ -9164,10 +9157,10 @@
         <v>277</v>
       </c>
       <c r="J189">
-        <v>380122</v>
+        <v>38.0122</v>
       </c>
       <c r="K189">
-        <v>237186</v>
+        <v>23.718599999999999</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
@@ -9184,7 +9177,7 @@
         <v>1560</v>
       </c>
       <c r="E190">
-        <v>1425</v>
+        <v>14.25</v>
       </c>
       <c r="F190" t="s">
         <v>536</v>
@@ -9199,10 +9192,10 @@
         <v>25</v>
       </c>
       <c r="J190">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K190">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
@@ -9234,10 +9227,10 @@
         <v>301</v>
       </c>
       <c r="J191">
-        <v>406149</v>
+        <v>40.614899999999999</v>
       </c>
       <c r="K191">
-        <v>229838</v>
+        <v>22.983799999999999</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
@@ -9254,7 +9247,7 @@
         <v>144900</v>
       </c>
       <c r="E192">
-        <v>955</v>
+        <v>95.5</v>
       </c>
       <c r="F192" t="s">
         <v>542</v>
@@ -9269,10 +9262,10 @@
         <v>103</v>
       </c>
       <c r="J192">
-        <v>379983</v>
+        <v>37.9983</v>
       </c>
       <c r="K192">
-        <v>237408</v>
+        <v>23.7408</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
@@ -9301,10 +9294,10 @@
         <v>277</v>
       </c>
       <c r="J193">
-        <v>380115</v>
+        <v>38.011499999999998</v>
       </c>
       <c r="K193">
-        <v>237315</v>
+        <v>23.7315</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
@@ -9321,7 +9314,7 @@
         <v>92000</v>
       </c>
       <c r="E194">
-        <v>745</v>
+        <v>74.5</v>
       </c>
       <c r="F194" t="s">
         <v>547</v>
@@ -9336,10 +9329,10 @@
         <v>103</v>
       </c>
       <c r="J194">
-        <v>380087</v>
+        <v>38.008699999999997</v>
       </c>
       <c r="K194">
-        <v>23729</v>
+        <v>23.728999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
@@ -9371,10 +9364,10 @@
         <v>70</v>
       </c>
       <c r="J195">
-        <v>406123</v>
+        <v>40.612299999999998</v>
       </c>
       <c r="K195">
-        <v>229686</v>
+        <v>22.968599999999999</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
@@ -9406,10 +9399,10 @@
         <v>309</v>
       </c>
       <c r="J196">
-        <v>406363</v>
+        <v>40.636299999999999</v>
       </c>
       <c r="K196">
-        <v>229517</v>
+        <v>22.951699999999999</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
@@ -9426,7 +9419,7 @@
         <v>446000</v>
       </c>
       <c r="E197">
-        <v>13867</v>
+        <v>138.66999999999999</v>
       </c>
       <c r="F197" t="s">
         <v>555</v>
@@ -9441,10 +9434,10 @@
         <v>202</v>
       </c>
       <c r="J197">
-        <v>379825</v>
+        <v>37.982500000000002</v>
       </c>
       <c r="K197">
-        <v>237518</v>
+        <v>23.751799999999999</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
@@ -9461,7 +9454,7 @@
         <v>76800</v>
       </c>
       <c r="E198">
-        <v>6518</v>
+        <v>65.180000000000007</v>
       </c>
       <c r="F198" t="s">
         <v>557</v>
@@ -9476,10 +9469,10 @@
         <v>99</v>
       </c>
       <c r="J198">
-        <v>406062</v>
+        <v>40.606200000000001</v>
       </c>
       <c r="K198">
-        <v>229779</v>
+        <v>22.977900000000002</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
@@ -9496,7 +9489,7 @@
         <v>97000</v>
       </c>
       <c r="E199">
-        <v>8205</v>
+        <v>82.05</v>
       </c>
       <c r="F199" t="s">
         <v>560</v>
@@ -9511,10 +9504,10 @@
         <v>103</v>
       </c>
       <c r="J199">
-        <v>380106</v>
+        <v>38.010599999999997</v>
       </c>
       <c r="K199">
-        <v>237341</v>
+        <v>23.734100000000002</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
@@ -9531,7 +9524,7 @@
         <v>93600</v>
       </c>
       <c r="E200">
-        <v>2608</v>
+        <v>26.08</v>
       </c>
       <c r="F200" t="s">
         <v>563</v>
@@ -9546,10 +9539,10 @@
         <v>70</v>
       </c>
       <c r="J200">
-        <v>3797</v>
+        <v>37.97</v>
       </c>
       <c r="K200">
-        <v>237516</v>
+        <v>23.7516</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
@@ -9581,10 +9574,10 @@
         <v>309</v>
       </c>
       <c r="J201">
-        <v>379832</v>
+        <v>37.983199999999997</v>
       </c>
       <c r="K201">
-        <v>237412</v>
+        <v>23.741199999999999</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
@@ -9601,7 +9594,7 @@
         <v>161000</v>
       </c>
       <c r="E202">
-        <v>7805</v>
+        <v>78.05</v>
       </c>
       <c r="F202" t="s">
         <v>569</v>
@@ -9616,10 +9609,10 @@
         <v>70</v>
       </c>
       <c r="J202">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K202">
-        <v>23704</v>
+        <v>23.704000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
@@ -9648,10 +9641,10 @@
         <v>63</v>
       </c>
       <c r="J203">
-        <v>406304</v>
+        <v>40.630400000000002</v>
       </c>
       <c r="K203">
-        <v>22945</v>
+        <v>22.945</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
@@ -9668,7 +9661,7 @@
         <v>136000</v>
       </c>
       <c r="E204">
-        <v>6185</v>
+        <v>61.85</v>
       </c>
       <c r="F204" t="s">
         <v>573</v>
@@ -9680,10 +9673,10 @@
         <v>30</v>
       </c>
       <c r="J204">
-        <v>380154</v>
+        <v>38.0154</v>
       </c>
       <c r="K204">
-        <v>237263</v>
+        <v>23.726299999999998</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
@@ -9700,7 +9693,7 @@
         <v>76100</v>
       </c>
       <c r="E205">
-        <v>1019</v>
+        <v>101.9</v>
       </c>
       <c r="F205" t="s">
         <v>576</v>
@@ -9715,10 +9708,10 @@
         <v>202</v>
       </c>
       <c r="J205">
-        <v>379866</v>
+        <v>37.986600000000003</v>
       </c>
       <c r="K205">
-        <v>237268</v>
+        <v>23.726800000000001</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
@@ -9744,10 +9737,10 @@
         <v>103</v>
       </c>
       <c r="J206">
-        <v>37968</v>
+        <v>37.968000000000004</v>
       </c>
       <c r="K206">
-        <v>237598</v>
+        <v>23.759799999999998</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
@@ -9764,7 +9757,7 @@
         <v>70000</v>
       </c>
       <c r="E207">
-        <v>2469</v>
+        <v>24.69</v>
       </c>
       <c r="F207" t="s">
         <v>580</v>
@@ -9779,10 +9772,10 @@
         <v>99</v>
       </c>
       <c r="J207">
-        <v>406006</v>
+        <v>40.6006</v>
       </c>
       <c r="K207">
-        <v>229708</v>
+        <v>22.970800000000001</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
@@ -9814,10 +9807,10 @@
         <v>301</v>
       </c>
       <c r="J208">
-        <v>406382</v>
+        <v>40.638199999999998</v>
       </c>
       <c r="K208">
-        <v>229488</v>
+        <v>22.948799999999999</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
@@ -9834,7 +9827,7 @@
         <v>206000</v>
       </c>
       <c r="E209">
-        <v>9706</v>
+        <v>97.06</v>
       </c>
       <c r="F209" t="s">
         <v>586</v>
@@ -9849,10 +9842,10 @@
         <v>301</v>
       </c>
       <c r="J209">
-        <v>379932</v>
+        <v>37.993200000000002</v>
       </c>
       <c r="K209">
-        <v>237582</v>
+        <v>23.758199999999999</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
@@ -9869,7 +9862,7 @@
         <v>160000</v>
       </c>
       <c r="E210">
-        <v>10925</v>
+        <v>109.25</v>
       </c>
       <c r="F210" t="s">
         <v>589</v>
@@ -9884,10 +9877,10 @@
         <v>30</v>
       </c>
       <c r="J210">
-        <v>379912</v>
+        <v>37.991199999999999</v>
       </c>
       <c r="K210">
-        <v>237271</v>
+        <v>23.7271</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
@@ -9904,7 +9897,7 @@
         <v>36000</v>
       </c>
       <c r="E211">
-        <v>7273</v>
+        <v>72.73</v>
       </c>
       <c r="F211" t="s">
         <v>592</v>
@@ -9919,10 +9912,10 @@
         <v>202</v>
       </c>
       <c r="J211">
-        <v>379566</v>
+        <v>37.956600000000002</v>
       </c>
       <c r="K211">
-        <v>23729</v>
+        <v>23.728999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
@@ -9939,7 +9932,7 @@
         <v>320000</v>
       </c>
       <c r="E212">
-        <v>8012</v>
+        <v>80.12</v>
       </c>
       <c r="F212" t="s">
         <v>594</v>
@@ -9951,10 +9944,10 @@
         <v>30</v>
       </c>
       <c r="J212">
-        <v>379796</v>
+        <v>37.979599999999998</v>
       </c>
       <c r="K212">
-        <v>237464</v>
+        <v>23.746400000000001</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
@@ -9980,10 +9973,10 @@
         <v>103</v>
       </c>
       <c r="J213">
-        <v>37968</v>
+        <v>37.968000000000004</v>
       </c>
       <c r="K213">
-        <v>237598</v>
+        <v>23.759799999999998</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
@@ -10015,10 +10008,10 @@
         <v>25</v>
       </c>
       <c r="J214">
-        <v>379675</v>
+        <v>37.967500000000001</v>
       </c>
       <c r="K214">
-        <v>237117</v>
+        <v>23.7117</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
@@ -10035,7 +10028,7 @@
         <v>287574</v>
       </c>
       <c r="E215">
-        <v>1068</v>
+        <v>106.8</v>
       </c>
       <c r="F215" t="s">
         <v>601</v>
@@ -10050,10 +10043,10 @@
         <v>99</v>
       </c>
       <c r="J215">
-        <v>379708</v>
+        <v>37.970799999999997</v>
       </c>
       <c r="K215">
-        <v>237075</v>
+        <v>23.7075</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
@@ -10070,7 +10063,7 @@
         <v>18200</v>
       </c>
       <c r="E216">
-        <v>485</v>
+        <v>48.5</v>
       </c>
       <c r="F216" t="s">
         <v>604</v>
@@ -10085,10 +10078,10 @@
         <v>103</v>
       </c>
       <c r="J216">
-        <v>379881</v>
+        <v>37.988100000000003</v>
       </c>
       <c r="K216">
-        <v>2377</v>
+        <v>23.77</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
@@ -10105,7 +10098,7 @@
         <v>45000</v>
       </c>
       <c r="E217">
-        <v>2842</v>
+        <v>28.42</v>
       </c>
       <c r="F217" t="s">
         <v>606</v>
@@ -10120,10 +10113,10 @@
         <v>99</v>
       </c>
       <c r="J217">
-        <v>406412</v>
+        <v>40.641199999999998</v>
       </c>
       <c r="K217">
-        <v>229331</v>
+        <v>22.9331</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
@@ -10152,10 +10145,10 @@
         <v>70</v>
       </c>
       <c r="J218">
-        <v>38018</v>
+        <v>38.018000000000001</v>
       </c>
       <c r="K218">
-        <v>237349</v>
+        <v>23.7349</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
@@ -10172,7 +10165,7 @@
         <v>70800</v>
       </c>
       <c r="E219">
-        <v>2183</v>
+        <v>21.83</v>
       </c>
       <c r="F219" t="s">
         <v>611</v>
@@ -10187,10 +10180,10 @@
         <v>309</v>
       </c>
       <c r="J219">
-        <v>406478</v>
+        <v>40.647799999999997</v>
       </c>
       <c r="K219">
-        <v>229208</v>
+        <v>22.9208</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
@@ -10207,7 +10200,7 @@
         <v>30550</v>
       </c>
       <c r="E220">
-        <v>693</v>
+        <v>69.3</v>
       </c>
       <c r="F220" t="s">
         <v>614</v>
@@ -10222,10 +10215,10 @@
         <v>25</v>
       </c>
       <c r="J220">
-        <v>406071</v>
+        <v>40.607100000000003</v>
       </c>
       <c r="K220">
-        <v>229538</v>
+        <v>22.953800000000001</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
@@ -10242,7 +10235,7 @@
         <v>70000</v>
       </c>
       <c r="E221">
-        <v>595</v>
+        <v>59.5</v>
       </c>
       <c r="F221" t="s">
         <v>616</v>
@@ -10257,10 +10250,10 @@
         <v>103</v>
       </c>
       <c r="J221">
-        <v>379823</v>
+        <v>37.982300000000002</v>
       </c>
       <c r="K221">
-        <v>237191</v>
+        <v>23.719100000000001</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
@@ -10277,7 +10270,7 @@
         <v>49000</v>
       </c>
       <c r="E222">
-        <v>485</v>
+        <v>48.5</v>
       </c>
       <c r="F222" t="s">
         <v>618</v>
@@ -10292,10 +10285,10 @@
         <v>103</v>
       </c>
       <c r="J222">
-        <v>379981</v>
+        <v>37.998100000000001</v>
       </c>
       <c r="K222">
-        <v>237284</v>
+        <v>23.728400000000001</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
@@ -10327,10 +10320,10 @@
         <v>103</v>
       </c>
       <c r="J223">
-        <v>380036</v>
+        <v>38.003599999999999</v>
       </c>
       <c r="K223">
-        <v>237259</v>
+        <v>23.725899999999999</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
@@ -10347,7 +10340,7 @@
         <v>86400</v>
       </c>
       <c r="E224">
-        <v>1015</v>
+        <v>101.5</v>
       </c>
       <c r="F224" t="s">
         <v>624</v>
@@ -10362,10 +10355,10 @@
         <v>103</v>
       </c>
       <c r="J224">
-        <v>379858</v>
+        <v>37.985799999999998</v>
       </c>
       <c r="K224">
-        <v>237139</v>
+        <v>23.713899999999999</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
@@ -10397,10 +10390,10 @@
         <v>103</v>
       </c>
       <c r="J225">
-        <v>379903</v>
+        <v>37.990299999999998</v>
       </c>
       <c r="K225">
-        <v>236968</v>
+        <v>23.6968</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
@@ -10417,7 +10410,7 @@
         <v>99000</v>
       </c>
       <c r="E226">
-        <v>7313</v>
+        <v>73.13</v>
       </c>
       <c r="F226" t="s">
         <v>629</v>
@@ -10429,10 +10422,10 @@
         <v>70</v>
       </c>
       <c r="J226">
-        <v>37992</v>
+        <v>37.991999999999997</v>
       </c>
       <c r="K226">
-        <v>23773</v>
+        <v>23.773</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
@@ -10449,7 +10442,7 @@
         <v>149500</v>
       </c>
       <c r="E227">
-        <v>1092</v>
+        <v>109.2</v>
       </c>
       <c r="F227" t="s">
         <v>631</v>
@@ -10464,10 +10457,10 @@
         <v>25</v>
       </c>
       <c r="J227">
-        <v>406074</v>
+        <v>40.607399999999998</v>
       </c>
       <c r="K227">
-        <v>229853</v>
+        <v>22.985299999999999</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
@@ -10481,7 +10474,7 @@
         <v>633</v>
       </c>
       <c r="D228">
-        <v>23346.400000000001</v>
+        <v>233464</v>
       </c>
       <c r="E228">
         <v>84</v>
@@ -10499,10 +10492,10 @@
         <v>25</v>
       </c>
       <c r="J228">
-        <v>379918</v>
+        <v>37.991799999999998</v>
       </c>
       <c r="K228">
-        <v>237227</v>
+        <v>23.7227</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
@@ -10519,7 +10512,7 @@
         <v>91819</v>
       </c>
       <c r="E229">
-        <v>5616</v>
+        <v>56.16</v>
       </c>
       <c r="F229" t="s">
         <v>637</v>
@@ -10534,10 +10527,10 @@
         <v>70</v>
       </c>
       <c r="J229">
-        <v>379876</v>
+        <v>37.9876</v>
       </c>
       <c r="K229">
-        <v>237637</v>
+        <v>23.7637</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
@@ -10554,7 +10547,7 @@
         <v>32000</v>
       </c>
       <c r="E230">
-        <v>692</v>
+        <v>69.2</v>
       </c>
       <c r="F230" t="s">
         <v>639</v>
@@ -10569,10 +10562,10 @@
         <v>301</v>
       </c>
       <c r="J230">
-        <v>379925</v>
+        <v>37.9925</v>
       </c>
       <c r="K230">
-        <v>237128</v>
+        <v>23.712800000000001</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
@@ -10589,7 +10582,7 @@
         <v>1800</v>
       </c>
       <c r="E231">
-        <v>1665</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="F231" t="s">
         <v>641</v>
@@ -10604,10 +10597,10 @@
         <v>25</v>
       </c>
       <c r="J231">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K231">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
@@ -10636,10 +10629,10 @@
         <v>99</v>
       </c>
       <c r="J232">
-        <v>40616</v>
+        <v>40.616</v>
       </c>
       <c r="K232">
-        <v>229542</v>
+        <v>22.9542</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
@@ -10653,7 +10646,7 @@
         <v>645</v>
       </c>
       <c r="D233">
-        <v>33842.25</v>
+        <v>3384225</v>
       </c>
       <c r="E233">
         <v>80</v>
@@ -10671,10 +10664,10 @@
         <v>217</v>
       </c>
       <c r="J233">
-        <v>380212</v>
+        <v>38.0212</v>
       </c>
       <c r="K233">
-        <v>237308</v>
+        <v>23.730799999999999</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
@@ -10691,7 +10684,7 @@
         <v>56640</v>
       </c>
       <c r="E234">
-        <v>5733</v>
+        <v>57.33</v>
       </c>
       <c r="F234" t="s">
         <v>649</v>
@@ -10706,10 +10699,10 @@
         <v>103</v>
       </c>
       <c r="J234">
-        <v>379662</v>
+        <v>37.966200000000001</v>
       </c>
       <c r="K234">
-        <v>237474</v>
+        <v>23.747399999999999</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
@@ -10726,7 +10719,7 @@
         <v>217000</v>
       </c>
       <c r="E235">
-        <v>10804</v>
+        <v>108.04</v>
       </c>
       <c r="F235" t="s">
         <v>652</v>
@@ -10741,10 +10734,10 @@
         <v>103</v>
       </c>
       <c r="J235">
-        <v>38019</v>
+        <v>38.018999999999998</v>
       </c>
       <c r="K235">
-        <v>237425</v>
+        <v>23.7425</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
@@ -10761,7 +10754,7 @@
         <v>845</v>
       </c>
       <c r="E236">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="F236" t="s">
         <v>655</v>
@@ -10776,10 +10769,10 @@
         <v>103</v>
       </c>
       <c r="J236">
-        <v>380109</v>
+        <v>38.010899999999999</v>
       </c>
       <c r="K236">
-        <v>237369</v>
+        <v>23.736899999999999</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
@@ -10811,10 +10804,10 @@
         <v>103</v>
       </c>
       <c r="J237">
-        <v>379918</v>
+        <v>37.991799999999998</v>
       </c>
       <c r="K237">
-        <v>237253</v>
+        <v>23.725300000000001</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
@@ -10831,7 +10824,7 @@
         <v>37800</v>
       </c>
       <c r="E238">
-        <v>5438</v>
+        <v>54.38</v>
       </c>
       <c r="F238" t="s">
         <v>660</v>
@@ -10846,10 +10839,10 @@
         <v>217</v>
       </c>
       <c r="J238">
-        <v>379604</v>
+        <v>37.9604</v>
       </c>
       <c r="K238">
-        <v>237272</v>
+        <v>23.7272</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
@@ -10866,7 +10859,7 @@
         <v>72800</v>
       </c>
       <c r="E239">
-        <v>795</v>
+        <v>79.5</v>
       </c>
       <c r="F239" t="s">
         <v>663</v>
@@ -10881,10 +10874,10 @@
         <v>202</v>
       </c>
       <c r="J239">
-        <v>380166</v>
+        <v>38.016599999999997</v>
       </c>
       <c r="K239">
-        <v>2373</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
@@ -10916,10 +10909,10 @@
         <v>217</v>
       </c>
       <c r="J240">
-        <v>379994</v>
+        <v>37.999400000000001</v>
       </c>
       <c r="K240">
-        <v>237262</v>
+        <v>23.726199999999999</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
@@ -10951,10 +10944,10 @@
         <v>99</v>
       </c>
       <c r="J241">
-        <v>406093</v>
+        <v>40.609299999999998</v>
       </c>
       <c r="K241">
-        <v>229525</v>
+        <v>22.952500000000001</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
@@ -10986,10 +10979,10 @@
         <v>301</v>
       </c>
       <c r="J242">
-        <v>380005</v>
+        <v>38.000500000000002</v>
       </c>
       <c r="K242">
-        <v>237248</v>
+        <v>23.724799999999998</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
@@ -11006,7 +10999,7 @@
         <v>70500</v>
       </c>
       <c r="E243">
-        <v>7018</v>
+        <v>70.180000000000007</v>
       </c>
       <c r="F243" t="s">
         <v>674</v>
@@ -11021,10 +11014,10 @@
         <v>202</v>
       </c>
       <c r="J243">
-        <v>379969</v>
+        <v>37.996899999999997</v>
       </c>
       <c r="K243">
-        <v>237291</v>
+        <v>23.729099999999999</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
@@ -11041,7 +11034,7 @@
         <v>37700</v>
       </c>
       <c r="E244">
-        <v>6767</v>
+        <v>67.67</v>
       </c>
       <c r="F244" t="s">
         <v>676</v>
@@ -11056,10 +11049,10 @@
         <v>217</v>
       </c>
       <c r="J244">
-        <v>379989</v>
+        <v>37.998899999999999</v>
       </c>
       <c r="K244">
-        <v>237118</v>
+        <v>23.7118</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
@@ -11091,10 +11084,10 @@
         <v>70</v>
       </c>
       <c r="J245">
-        <v>379874</v>
+        <v>37.987400000000001</v>
       </c>
       <c r="K245">
-        <v>237353</v>
+        <v>23.735299999999999</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
@@ -11111,7 +11104,7 @@
         <v>100100</v>
       </c>
       <c r="E246">
-        <v>865</v>
+        <v>86.5</v>
       </c>
       <c r="F246" t="s">
         <v>680</v>
@@ -11126,10 +11119,10 @@
         <v>103</v>
       </c>
       <c r="J246">
-        <v>380109</v>
+        <v>38.010899999999999</v>
       </c>
       <c r="K246">
-        <v>237369</v>
+        <v>23.736899999999999</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
@@ -11146,7 +11139,7 @@
         <v>10000</v>
       </c>
       <c r="E247">
-        <v>872</v>
+        <v>8.7200000000000006</v>
       </c>
       <c r="F247" t="s">
         <v>682</v>
@@ -11158,10 +11151,10 @@
         <v>30</v>
       </c>
       <c r="J247">
-        <v>379796</v>
+        <v>37.979599999999998</v>
       </c>
       <c r="K247">
-        <v>237464</v>
+        <v>23.746400000000001</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
@@ -11178,7 +11171,7 @@
         <v>97225</v>
       </c>
       <c r="E248">
-        <v>7457</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="F248" t="s">
         <v>685</v>
@@ -11193,10 +11186,10 @@
         <v>309</v>
       </c>
       <c r="J248">
-        <v>406062</v>
+        <v>40.606200000000001</v>
       </c>
       <c r="K248">
-        <v>229738</v>
+        <v>22.973800000000001</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
@@ -11228,10 +11221,10 @@
         <v>25</v>
       </c>
       <c r="J249">
-        <v>379606</v>
+        <v>37.960599999999999</v>
       </c>
       <c r="K249">
-        <v>23736</v>
+        <v>23.736000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
@@ -11248,7 +11241,7 @@
         <v>46880</v>
       </c>
       <c r="E250">
-        <v>586</v>
+        <v>58.6</v>
       </c>
       <c r="F250" t="s">
         <v>690</v>
@@ -11263,10 +11256,10 @@
         <v>103</v>
       </c>
       <c r="J250">
-        <v>380066</v>
+        <v>38.006599999999999</v>
       </c>
       <c r="K250">
-        <v>237266</v>
+        <v>23.726600000000001</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
@@ -11283,7 +11276,7 @@
         <v>75000</v>
       </c>
       <c r="E251">
-        <v>7615</v>
+        <v>76.150000000000006</v>
       </c>
       <c r="F251" t="s">
         <v>692</v>
@@ -11298,10 +11291,10 @@
         <v>63</v>
       </c>
       <c r="J251">
-        <v>379926</v>
+        <v>37.992600000000003</v>
       </c>
       <c r="K251">
-        <v>237286</v>
+        <v>23.7286</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
@@ -11318,7 +11311,7 @@
         <v>154470</v>
       </c>
       <c r="E252">
-        <v>813</v>
+        <v>81.3</v>
       </c>
       <c r="F252" t="s">
         <v>694</v>
@@ -11333,10 +11326,10 @@
         <v>70</v>
       </c>
       <c r="J252">
-        <v>379917</v>
+        <v>37.991700000000002</v>
       </c>
       <c r="K252">
-        <v>237641</v>
+        <v>23.764099999999999</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
@@ -11353,7 +11346,7 @@
         <v>182400</v>
       </c>
       <c r="E253">
-        <v>12951</v>
+        <v>129.51</v>
       </c>
       <c r="F253" t="s">
         <v>697</v>
@@ -11368,10 +11361,10 @@
         <v>301</v>
       </c>
       <c r="J253">
-        <v>379813</v>
+        <v>37.981299999999997</v>
       </c>
       <c r="K253">
-        <v>237598</v>
+        <v>23.759799999999998</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
@@ -11388,7 +11381,7 @@
         <v>351000</v>
       </c>
       <c r="E254">
-        <v>17358</v>
+        <v>173.58</v>
       </c>
       <c r="F254" t="s">
         <v>700</v>
@@ -11403,10 +11396,10 @@
         <v>99</v>
       </c>
       <c r="J254">
-        <v>406076</v>
+        <v>40.607599999999998</v>
       </c>
       <c r="K254">
-        <v>229763</v>
+        <v>22.976299999999998</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
@@ -11423,7 +11416,7 @@
         <v>50700</v>
       </c>
       <c r="E255">
-        <v>636</v>
+        <v>63.6</v>
       </c>
       <c r="F255" t="s">
         <v>703</v>
@@ -11438,10 +11431,10 @@
         <v>103</v>
       </c>
       <c r="J255">
-        <v>379558</v>
+        <v>37.955800000000004</v>
       </c>
       <c r="K255">
-        <v>237287</v>
+        <v>23.7287</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
@@ -11473,10 +11466,10 @@
         <v>217</v>
       </c>
       <c r="J256">
-        <v>37987</v>
+        <v>37.987000000000002</v>
       </c>
       <c r="K256">
-        <v>237453</v>
+        <v>23.7453</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
@@ -11493,7 +11486,7 @@
         <v>120000</v>
       </c>
       <c r="E257">
-        <v>683</v>
+        <v>68.3</v>
       </c>
       <c r="F257" t="s">
         <v>707</v>
@@ -11508,10 +11501,10 @@
         <v>309</v>
       </c>
       <c r="J257">
-        <v>406051</v>
+        <v>40.6051</v>
       </c>
       <c r="K257">
-        <v>229518</v>
+        <v>22.951799999999999</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
@@ -11528,7 +11521,7 @@
         <v>4000</v>
       </c>
       <c r="E258">
-        <v>1099</v>
+        <v>10.99</v>
       </c>
       <c r="F258" t="s">
         <v>709</v>
@@ -11543,10 +11536,10 @@
         <v>103</v>
       </c>
       <c r="J258">
-        <v>38019</v>
+        <v>38.018999999999998</v>
       </c>
       <c r="K258">
-        <v>237425</v>
+        <v>23.7425</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
@@ -11575,10 +11568,10 @@
         <v>149</v>
       </c>
       <c r="J259">
-        <v>379845</v>
+        <v>37.984499999999997</v>
       </c>
       <c r="K259">
-        <v>237607</v>
+        <v>23.7607</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
@@ -11595,7 +11588,7 @@
         <v>76000</v>
       </c>
       <c r="E260">
-        <v>6432</v>
+        <v>64.319999999999993</v>
       </c>
       <c r="F260" t="s">
         <v>713</v>
@@ -11610,10 +11603,10 @@
         <v>301</v>
       </c>
       <c r="J260">
-        <v>380142</v>
+        <v>38.014200000000002</v>
       </c>
       <c r="K260">
-        <v>237283</v>
+        <v>23.728300000000001</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
@@ -11630,7 +11623,7 @@
         <v>33500</v>
       </c>
       <c r="E261">
-        <v>508</v>
+        <v>50.8</v>
       </c>
       <c r="F261" t="s">
         <v>715</v>
@@ -11645,10 +11638,10 @@
         <v>309</v>
       </c>
       <c r="J261">
-        <v>406386</v>
+        <v>40.638599999999997</v>
       </c>
       <c r="K261">
-        <v>229416</v>
+        <v>22.941600000000001</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
@@ -11665,7 +11658,7 @@
         <v>108202</v>
       </c>
       <c r="E262">
-        <v>861</v>
+        <v>86.1</v>
       </c>
       <c r="F262" t="s">
         <v>717</v>
@@ -11680,10 +11673,10 @@
         <v>70</v>
       </c>
       <c r="J262">
-        <v>40646</v>
+        <v>40.646000000000001</v>
       </c>
       <c r="K262">
-        <v>229372</v>
+        <v>22.937200000000001</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
@@ -11700,7 +11693,7 @@
         <v>85000</v>
       </c>
       <c r="E263">
-        <v>772</v>
+        <v>77.2</v>
       </c>
       <c r="F263" t="s">
         <v>718</v>
@@ -11715,10 +11708,10 @@
         <v>63</v>
       </c>
       <c r="J263">
-        <v>379926</v>
+        <v>37.992600000000003</v>
       </c>
       <c r="K263">
-        <v>237286</v>
+        <v>23.7286</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
@@ -11744,10 +11737,10 @@
         <v>309</v>
       </c>
       <c r="J264">
-        <v>406145</v>
+        <v>40.6145</v>
       </c>
       <c r="K264">
-        <v>229614</v>
+        <v>22.961400000000001</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
@@ -11779,10 +11772,10 @@
         <v>25</v>
       </c>
       <c r="J265">
-        <v>379675</v>
+        <v>37.967500000000001</v>
       </c>
       <c r="K265">
-        <v>237117</v>
+        <v>23.7117</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.3">
@@ -11799,7 +11792,7 @@
         <v>81900</v>
       </c>
       <c r="E266">
-        <v>495</v>
+        <v>49.5</v>
       </c>
       <c r="F266" t="s">
         <v>725</v>
@@ -11814,10 +11807,10 @@
         <v>103</v>
       </c>
       <c r="J266">
-        <v>379983</v>
+        <v>37.9983</v>
       </c>
       <c r="K266">
-        <v>237408</v>
+        <v>23.7408</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.3">
@@ -11831,7 +11824,7 @@
         <v>727</v>
       </c>
       <c r="D267">
-        <v>45046.400000000001</v>
+        <v>450464</v>
       </c>
       <c r="E267">
         <v>170</v>
@@ -11849,10 +11842,10 @@
         <v>25</v>
       </c>
       <c r="J267">
-        <v>37991</v>
+        <v>37.991</v>
       </c>
       <c r="K267">
-        <v>237252</v>
+        <v>23.725200000000001</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.3">
@@ -11869,7 +11862,7 @@
         <v>45000</v>
       </c>
       <c r="E268">
-        <v>2842</v>
+        <v>28.42</v>
       </c>
       <c r="F268" t="s">
         <v>729</v>
@@ -11884,10 +11877,10 @@
         <v>99</v>
       </c>
       <c r="J268">
-        <v>406412</v>
+        <v>40.641199999999998</v>
       </c>
       <c r="K268">
-        <v>229331</v>
+        <v>22.9331</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
@@ -11913,10 +11906,10 @@
         <v>30</v>
       </c>
       <c r="J269">
-        <v>379796</v>
+        <v>37.979599999999998</v>
       </c>
       <c r="K269">
-        <v>237464</v>
+        <v>23.746400000000001</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.3">
@@ -11933,7 +11926,7 @@
         <v>22080</v>
       </c>
       <c r="E270">
-        <v>8938</v>
+        <v>89.38</v>
       </c>
       <c r="F270" t="s">
         <v>733</v>
@@ -11948,10 +11941,10 @@
         <v>103</v>
       </c>
       <c r="J270">
-        <v>379662</v>
+        <v>37.966200000000001</v>
       </c>
       <c r="K270">
-        <v>237474</v>
+        <v>23.747399999999999</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
@@ -11968,7 +11961,7 @@
         <v>203200</v>
       </c>
       <c r="E271">
-        <v>11027</v>
+        <v>110.27</v>
       </c>
       <c r="F271" t="s">
         <v>735</v>
@@ -11983,10 +11976,10 @@
         <v>301</v>
       </c>
       <c r="J271">
-        <v>379994</v>
+        <v>37.999400000000001</v>
       </c>
       <c r="K271">
-        <v>237261</v>
+        <v>23.726099999999999</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.3">
@@ -12003,7 +11996,7 @@
         <v>1400</v>
       </c>
       <c r="E272">
-        <v>127</v>
+        <v>12.7</v>
       </c>
       <c r="F272" t="s">
         <v>737</v>
@@ -12018,10 +12011,10 @@
         <v>25</v>
       </c>
       <c r="J272">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K272">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.3">
@@ -12050,10 +12043,10 @@
         <v>103</v>
       </c>
       <c r="J273">
-        <v>406407</v>
+        <v>40.640700000000002</v>
       </c>
       <c r="K273">
-        <v>229453</v>
+        <v>22.9453</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.3">
@@ -12070,7 +12063,7 @@
         <v>114513</v>
       </c>
       <c r="E274">
-        <v>473</v>
+        <v>47.3</v>
       </c>
       <c r="F274" t="s">
         <v>742</v>
@@ -12085,10 +12078,10 @@
         <v>103</v>
       </c>
       <c r="J274">
-        <v>379961</v>
+        <v>37.996099999999998</v>
       </c>
       <c r="K274">
-        <v>237746</v>
+        <v>23.7746</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.3">
@@ -12120,10 +12113,10 @@
         <v>25</v>
       </c>
       <c r="J275">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K275">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.3">
@@ -12140,7 +12133,7 @@
         <v>88320</v>
       </c>
       <c r="E276">
-        <v>8938</v>
+        <v>89.38</v>
       </c>
       <c r="F276" t="s">
         <v>746</v>
@@ -12155,10 +12148,10 @@
         <v>103</v>
       </c>
       <c r="J276">
-        <v>379662</v>
+        <v>37.966200000000001</v>
       </c>
       <c r="K276">
-        <v>237474</v>
+        <v>23.747399999999999</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.3">
@@ -12187,10 +12180,10 @@
         <v>149</v>
       </c>
       <c r="J277">
-        <v>380137</v>
+        <v>38.0137</v>
       </c>
       <c r="K277">
-        <v>237389</v>
+        <v>23.738900000000001</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.3">
@@ -12207,7 +12200,7 @@
         <v>5100</v>
       </c>
       <c r="E278">
-        <v>85</v>
+        <v>8.5</v>
       </c>
       <c r="F278" t="s">
         <v>750</v>
@@ -12222,10 +12215,10 @@
         <v>99</v>
       </c>
       <c r="J278">
-        <v>379708</v>
+        <v>37.970799999999997</v>
       </c>
       <c r="K278">
-        <v>237075</v>
+        <v>23.7075</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.3">
@@ -12242,7 +12235,7 @@
         <v>43290</v>
       </c>
       <c r="E279">
-        <v>823</v>
+        <v>82.3</v>
       </c>
       <c r="F279" t="s">
         <v>753</v>
@@ -12257,10 +12250,10 @@
         <v>25</v>
       </c>
       <c r="J279">
-        <v>380104</v>
+        <v>38.010399999999997</v>
       </c>
       <c r="K279">
-        <v>237223</v>
+        <v>23.722300000000001</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.3">
@@ -12277,7 +12270,7 @@
         <v>80100</v>
       </c>
       <c r="E280">
-        <v>495</v>
+        <v>49.5</v>
       </c>
       <c r="F280" t="s">
         <v>754</v>
@@ -12292,10 +12285,10 @@
         <v>103</v>
       </c>
       <c r="J280">
-        <v>379983</v>
+        <v>37.9983</v>
       </c>
       <c r="K280">
-        <v>237408</v>
+        <v>23.7408</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.3">
@@ -12327,10 +12320,10 @@
         <v>70</v>
       </c>
       <c r="J281">
-        <v>406478</v>
+        <v>40.647799999999997</v>
       </c>
       <c r="K281">
-        <v>229367</v>
+        <v>22.936699999999998</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.3">
@@ -12359,10 +12352,10 @@
         <v>70</v>
       </c>
       <c r="J282">
-        <v>379838</v>
+        <v>37.983800000000002</v>
       </c>
       <c r="K282">
-        <v>237106</v>
+        <v>23.710599999999999</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.3">
@@ -12379,7 +12372,7 @@
         <v>104000</v>
       </c>
       <c r="E283">
-        <v>707</v>
+        <v>70.7</v>
       </c>
       <c r="F283" t="s">
         <v>761</v>
@@ -12394,10 +12387,10 @@
         <v>301</v>
       </c>
       <c r="J283">
-        <v>37973</v>
+        <v>37.972999999999999</v>
       </c>
       <c r="K283">
-        <v>237112</v>
+        <v>23.711200000000002</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
@@ -12414,7 +12407,7 @@
         <v>2400</v>
       </c>
       <c r="E284">
-        <v>585</v>
+        <v>5.85</v>
       </c>
       <c r="F284" t="s">
         <v>763</v>
@@ -12429,10 +12422,10 @@
         <v>70</v>
       </c>
       <c r="J284">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K284">
-        <v>23704</v>
+        <v>23.704000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.3">
@@ -12446,7 +12439,7 @@
         <v>525</v>
       </c>
       <c r="D285">
-        <v>187.25</v>
+        <v>18725</v>
       </c>
       <c r="F285" t="s">
         <v>765</v>
@@ -12455,10 +12448,10 @@
         <v>527</v>
       </c>
       <c r="J285">
-        <v>406046</v>
+        <v>40.604599999999998</v>
       </c>
       <c r="K285">
-        <v>229572</v>
+        <v>22.9572</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.3">
@@ -12487,10 +12480,10 @@
         <v>30</v>
       </c>
       <c r="J286">
-        <v>37964</v>
+        <v>37.963999999999999</v>
       </c>
       <c r="K286">
-        <v>237455</v>
+        <v>23.7455</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.3">
@@ -12522,10 +12515,10 @@
         <v>25</v>
       </c>
       <c r="J287">
-        <v>379782</v>
+        <v>37.978200000000001</v>
       </c>
       <c r="K287">
-        <v>237044</v>
+        <v>23.7044</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.3">
@@ -12542,7 +12535,7 @@
         <v>132200</v>
       </c>
       <c r="E288">
-        <v>7556</v>
+        <v>75.56</v>
       </c>
       <c r="F288" t="s">
         <v>771</v>
@@ -12557,10 +12550,10 @@
         <v>149</v>
       </c>
       <c r="J288">
-        <v>380015</v>
+        <v>38.0015</v>
       </c>
       <c r="K288">
-        <v>237438</v>
+        <v>23.7438</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.3">
@@ -12577,7 +12570,7 @@
         <v>121396</v>
       </c>
       <c r="E289">
-        <v>6853</v>
+        <v>68.53</v>
       </c>
       <c r="F289" t="s">
         <v>773</v>
@@ -12592,10 +12585,10 @@
         <v>309</v>
       </c>
       <c r="J289">
-        <v>405969</v>
+        <v>40.596899999999998</v>
       </c>
       <c r="K289">
-        <v>229622</v>
+        <v>22.962199999999999</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.3">
@@ -12621,10 +12614,10 @@
         <v>103</v>
       </c>
       <c r="J290">
-        <v>379891</v>
+        <v>37.989100000000001</v>
       </c>
       <c r="K290">
-        <v>237626</v>
+        <v>23.762599999999999</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.3">
@@ -12641,7 +12634,7 @@
         <v>92000</v>
       </c>
       <c r="E291">
-        <v>2525</v>
+        <v>25.25</v>
       </c>
       <c r="F291" t="s">
         <v>778</v>
@@ -12656,10 +12649,10 @@
         <v>103</v>
       </c>
       <c r="J291">
-        <v>405956</v>
+        <v>40.595599999999997</v>
       </c>
       <c r="K291">
-        <v>229655</v>
+        <v>22.965499999999999</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.3">
@@ -12676,7 +12669,7 @@
         <v>38700</v>
       </c>
       <c r="E292">
-        <v>147</v>
+        <v>14.7</v>
       </c>
       <c r="F292" t="s">
         <v>781</v>
@@ -12691,10 +12684,10 @@
         <v>149</v>
       </c>
       <c r="J292">
-        <v>379591</v>
+        <v>37.959099999999999</v>
       </c>
       <c r="K292">
-        <v>237375</v>
+        <v>23.737500000000001</v>
       </c>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.3">
@@ -12726,10 +12719,10 @@
         <v>103</v>
       </c>
       <c r="J293">
-        <v>379994</v>
+        <v>37.999400000000001</v>
       </c>
       <c r="K293">
-        <v>237556</v>
+        <v>23.755600000000001</v>
       </c>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.3">
@@ -12758,10 +12751,10 @@
         <v>194</v>
       </c>
       <c r="J294">
-        <v>379982</v>
+        <v>37.998199999999997</v>
       </c>
       <c r="K294">
-        <v>237261</v>
+        <v>23.726099999999999</v>
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.3">
@@ -12778,7 +12771,7 @@
         <v>46000</v>
       </c>
       <c r="E295">
-        <v>4593</v>
+        <v>45.93</v>
       </c>
       <c r="F295" t="s">
         <v>788</v>
@@ -12793,7 +12786,7 @@
         <v>38</v>
       </c>
       <c r="K295">
-        <v>237357</v>
+        <v>23.735700000000001</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.3">
@@ -12825,10 +12818,10 @@
         <v>217</v>
       </c>
       <c r="J296">
-        <v>379723</v>
+        <v>37.972299999999997</v>
       </c>
       <c r="K296">
-        <v>237083</v>
+        <v>23.708300000000001</v>
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
@@ -12845,7 +12838,7 @@
         <v>5236</v>
       </c>
       <c r="E297">
-        <v>635</v>
+        <v>63.5</v>
       </c>
       <c r="F297" t="s">
         <v>793</v>
@@ -12860,10 +12853,10 @@
         <v>25</v>
       </c>
       <c r="J297">
-        <v>406137</v>
+        <v>40.613700000000001</v>
       </c>
       <c r="K297">
-        <v>229646</v>
+        <v>22.964600000000001</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.3">
@@ -12895,10 +12888,10 @@
         <v>103</v>
       </c>
       <c r="J298">
-        <v>37998</v>
+        <v>37.997999999999998</v>
       </c>
       <c r="K298">
-        <v>237433</v>
+        <v>23.743300000000001</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.3">
@@ -12915,7 +12908,7 @@
         <v>182460</v>
       </c>
       <c r="E299">
-        <v>7469</v>
+        <v>74.69</v>
       </c>
       <c r="F299" t="s">
         <v>798</v>
@@ -12930,10 +12923,10 @@
         <v>103</v>
       </c>
       <c r="J299">
-        <v>379845</v>
+        <v>37.984499999999997</v>
       </c>
       <c r="K299">
-        <v>237371</v>
+        <v>23.737100000000002</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.3">
@@ -12965,10 +12958,10 @@
         <v>309</v>
       </c>
       <c r="J300">
-        <v>406106</v>
+        <v>40.610599999999998</v>
       </c>
       <c r="K300">
-        <v>229714</v>
+        <v>22.971399999999999</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.3">
@@ -12994,10 +12987,10 @@
         <v>309</v>
       </c>
       <c r="J301">
-        <v>406386</v>
+        <v>40.638599999999997</v>
       </c>
       <c r="K301">
-        <v>229416</v>
+        <v>22.941600000000001</v>
       </c>
     </row>
   </sheetData>
